--- a/Elijah_inflation.xlsx
+++ b/Elijah_inflation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\Dashboard_Deployed\macropredict2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\Macro_Forecast_Prediction_Project\GDP_Inflation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F728F10-7EA1-4AC0-B817-37B8D9CA00BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F30EC2-1BE0-4CED-91F1-2B600BA9A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{54000EAB-56B4-41E3-A6EB-D4218010B248}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>M1</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Headline Inflation</t>
   </si>
 </sst>
 </file>
@@ -258,7 +255,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +336,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,16 +769,16 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="45" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -825,16 +825,16 @@
       <c r="F2" s="13">
         <v>156.96</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="46">
         <v>19004118</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="46">
         <v>456490</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="47">
         <v>180595</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="47">
         <v>646048</v>
       </c>
       <c r="K2" s="13">
@@ -881,16 +881,16 @@
       <c r="F3" s="13">
         <v>157.52000000000001</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="46">
         <v>21084395</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="46">
         <v>441961</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="47">
         <v>173347</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="47">
         <v>673784</v>
       </c>
       <c r="K3" s="13">
@@ -937,16 +937,16 @@
       <c r="F4" s="13">
         <v>158.63</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="46">
         <v>24730428</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="46">
         <v>536554</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="47">
         <v>179200</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="47">
         <v>773150</v>
       </c>
       <c r="K4" s="13">
@@ -993,16 +993,16 @@
       <c r="F5" s="13">
         <v>158.19999999999999</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="46">
         <v>23451066</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="46">
         <v>494953</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="47">
         <v>178411</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="47">
         <v>1018759</v>
       </c>
       <c r="K5" s="13">
@@ -1049,16 +1049,16 @@
       <c r="F6" s="13">
         <v>158.02000000000001</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="46">
         <v>25115587</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="46">
         <v>603786</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="47">
         <v>194825</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="47">
         <v>1445715</v>
       </c>
       <c r="K6" s="13">
@@ -1105,16 +1105,16 @@
       <c r="F7" s="13">
         <v>160.02000000000001</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="46">
         <v>23277419</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="46">
         <v>674044</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="47">
         <v>202107</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="47">
         <v>1424769</v>
       </c>
       <c r="K7" s="13">
@@ -1161,16 +1161,16 @@
       <c r="F8" s="13">
         <v>161.12</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="46">
         <v>25172822</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <v>749879</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="47">
         <v>288622</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="47">
         <v>1639608</v>
       </c>
       <c r="K8" s="13">
@@ -1217,16 +1217,16 @@
       <c r="F9" s="13">
         <v>161.15</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="46">
         <v>25692821</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="46">
         <v>836532</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="47">
         <v>239291</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="47">
         <v>1715386</v>
       </c>
       <c r="K9" s="13">
@@ -1273,16 +1273,16 @@
       <c r="F10" s="13">
         <v>161.96</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="46">
         <v>25836867</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="46">
         <v>923502</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="47">
         <v>282786</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="47">
         <v>1954073</v>
       </c>
       <c r="K10" s="13">
@@ -1329,16 +1329,16 @@
       <c r="F11" s="13">
         <v>159.83000000000001</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="46">
         <v>26860954</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="46">
         <v>1062697</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="47">
         <v>293568</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="47">
         <v>2052917</v>
       </c>
       <c r="K11" s="13">
@@ -1385,16 +1385,16 @@
       <c r="F12" s="13">
         <v>158.79</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="46">
         <v>26235362</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="46">
         <v>1155703</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="47">
         <v>283891</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="47">
         <v>1153747</v>
       </c>
       <c r="K12" s="13">
@@ -1441,16 +1441,16 @@
       <c r="F13" s="13">
         <v>159.05000000000001</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="46">
         <v>28831101</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="46">
         <v>1466154</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="47">
         <v>403830</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="47">
         <v>1314479</v>
       </c>
       <c r="K13" s="13">
@@ -1497,16 +1497,16 @@
       <c r="F14" s="13">
         <v>160.22999999999999</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="46">
         <v>26532724</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="46">
         <v>1349561</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="47">
         <v>359582</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="47">
         <v>1513998</v>
       </c>
       <c r="K14" s="13">
@@ -1553,16 +1553,16 @@
       <c r="F15" s="13">
         <v>163.62</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="46">
         <v>26685397</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="46">
         <v>1433005</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="47">
         <v>330926</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="47">
         <v>1591649</v>
       </c>
       <c r="K15" s="13">
@@ -1580,7 +1580,7 @@
       <c r="O15" s="13">
         <v>13442</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="48">
         <v>103.8</v>
       </c>
       <c r="Q15" s="18">
@@ -1609,16 +1609,16 @@
       <c r="F16" s="13">
         <v>164.61</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="46">
         <v>29585180</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="46">
         <v>1576671</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="47">
         <v>431538</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="47">
         <v>1772986</v>
       </c>
       <c r="K16" s="13">
@@ -1665,16 +1665,16 @@
       <c r="F17" s="13">
         <v>162.19</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="46">
         <v>27853731</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="46">
         <v>1624564</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="47">
         <v>396072</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="47">
         <v>1878800</v>
       </c>
       <c r="K17" s="13">
@@ -1721,16 +1721,16 @@
       <c r="F18" s="13">
         <v>161.86000000000001</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="46">
         <v>28337262</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="46">
         <v>1362120</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="47">
         <v>358410</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="47">
         <v>2685044</v>
       </c>
       <c r="K18" s="13">
@@ -1777,16 +1777,16 @@
       <c r="F19" s="13">
         <v>162.82</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="46">
         <v>36512638</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="46">
         <v>1625580</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="47">
         <v>353825</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="47">
         <v>3664095</v>
       </c>
       <c r="K19" s="13">
@@ -1833,16 +1833,16 @@
       <c r="F20" s="13">
         <v>162.25</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="46">
         <v>39123904</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="46">
         <v>1758646</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="47">
         <v>500415</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="47">
         <v>2705611</v>
       </c>
       <c r="K20" s="13">
@@ -1889,16 +1889,16 @@
       <c r="F21" s="13">
         <v>161.99</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="46">
         <v>38257176</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="46">
         <v>1503414</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="47">
         <v>535153</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="47">
         <v>1928482</v>
       </c>
       <c r="K21" s="13">
@@ -1945,16 +1945,16 @@
       <c r="F22" s="13">
         <v>162.93</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="46">
         <v>34814241</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="46">
         <v>1867266</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="47">
         <v>561826</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="47">
         <v>3549910</v>
       </c>
       <c r="K22" s="13">
@@ -2001,16 +2001,16 @@
       <c r="F23" s="13">
         <v>164.64</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="46">
         <v>33819553</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="46">
         <v>1988644</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="47">
         <v>577699</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="47">
         <v>2169251</v>
       </c>
       <c r="K23" s="13">
@@ -2057,16 +2057,16 @@
       <c r="F24" s="13">
         <v>171.1</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="46">
         <v>39296689</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="46">
         <v>2091087</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="47">
         <v>590713</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="47">
         <v>3549910</v>
       </c>
       <c r="K24" s="13">
@@ -2113,16 +2113,16 @@
       <c r="F25" s="13">
         <v>180.33</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="46">
         <v>39284012</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="46">
         <v>2636865</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="47">
         <v>590922</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="47">
         <v>2146670</v>
       </c>
       <c r="K25" s="13">
@@ -2169,16 +2169,16 @@
       <c r="F26" s="13">
         <v>181.78</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="46">
         <v>33928219</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="46">
         <v>2267257</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="47">
         <v>591003</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="47">
         <v>2295177</v>
       </c>
       <c r="K26" s="13">
@@ -2225,16 +2225,16 @@
       <c r="F27" s="13">
         <v>194.48</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="46">
         <v>32160157</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="46">
         <v>2338113</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="47">
         <v>538813</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="47">
         <v>2631199</v>
       </c>
       <c r="K27" s="13">
@@ -2281,16 +2281,16 @@
       <c r="F28" s="13">
         <v>197.07</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="46">
         <v>35783293</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="46">
         <v>2605160</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="47">
         <v>618123</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="47">
         <v>3599144</v>
       </c>
       <c r="K28" s="13">
@@ -2337,16 +2337,16 @@
       <c r="F29" s="13">
         <v>197</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="46">
         <v>32792129</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="46">
         <v>2560973</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="47">
         <v>572001</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="47">
         <v>3348322</v>
       </c>
       <c r="K29" s="13">
@@ -2393,16 +2393,16 @@
       <c r="F30" s="13">
         <v>197</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="46">
         <v>37333321</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="46">
         <v>2655153</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="47">
         <v>514551</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="47">
         <v>3272318</v>
       </c>
       <c r="K30" s="13">
@@ -2449,16 +2449,16 @@
       <c r="F31" s="13">
         <v>196.92</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="46">
         <v>34608166</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="46">
         <v>2497385</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="47">
         <v>493529</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="47">
         <v>3627712</v>
       </c>
       <c r="K31" s="13">
@@ -2505,16 +2505,16 @@
       <c r="F32" s="13">
         <v>196.97</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="46">
         <v>35197807</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="46">
         <v>2682200</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="47">
         <v>562953</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="47">
         <v>3911633</v>
       </c>
       <c r="K32" s="13">
@@ -2561,16 +2561,16 @@
       <c r="F33" s="13">
         <v>197</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="46">
         <v>36932437</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="46">
         <v>2729286</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="47">
         <v>889116</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="47">
         <v>4090768</v>
       </c>
       <c r="K33" s="13">
@@ -2617,16 +2617,16 @@
       <c r="F34" s="13">
         <v>197</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="46">
         <v>37982094</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="46">
         <v>3013482</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="47">
         <v>765218</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="47">
         <v>4203470</v>
       </c>
       <c r="K34" s="13">
@@ -2673,16 +2673,16 @@
       <c r="F35" s="13">
         <v>196.99</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="46">
         <v>38424883</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="46">
         <v>3247610</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="47">
         <v>705815</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="47">
         <v>4314022</v>
       </c>
       <c r="K35" s="13">
@@ -2729,16 +2729,16 @@
       <c r="F36" s="13">
         <v>196.99</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="46">
         <v>34757254</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="46">
         <v>3177593</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="47">
         <v>817718</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="47">
         <v>4122044</v>
       </c>
       <c r="K36" s="13">
@@ -2785,16 +2785,16 @@
       <c r="F37" s="13">
         <v>196.99</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="46">
         <v>43687863</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="46">
         <v>3946721</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="47">
         <v>912521</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="47">
         <v>4517553</v>
       </c>
       <c r="K37" s="13">
@@ -2841,16 +2841,16 @@
       <c r="F38" s="13">
         <v>197</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="46">
         <v>39170746</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="46">
         <v>3599828</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="47">
         <v>866832</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="47">
         <v>4409735</v>
       </c>
       <c r="K38" s="13">
@@ -2897,16 +2897,16 @@
       <c r="F39" s="13">
         <v>197</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="46">
         <v>41189325</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="46">
         <v>3833884</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="47">
         <v>1008220</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="47">
         <v>4522569</v>
       </c>
       <c r="K39" s="13">
@@ -2953,16 +2953,16 @@
       <c r="F40" s="13">
         <v>197</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="46">
         <v>44430115</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="46">
         <v>4311844</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="47">
         <v>853363</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="47">
         <v>5159701</v>
       </c>
       <c r="K40" s="13">
@@ -3009,16 +3009,16 @@
       <c r="F41" s="13">
         <v>197</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="46">
         <v>45806594</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="46">
         <v>4463599</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="47">
         <v>934969</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="47">
         <v>2857602</v>
       </c>
       <c r="K41" s="13">
@@ -3065,16 +3065,16 @@
       <c r="F42" s="13">
         <v>197</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="46">
         <v>45474823</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="46">
         <v>4554184</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="47">
         <v>841026</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="47">
         <v>2852858</v>
       </c>
       <c r="K42" s="13">
@@ -3121,16 +3121,16 @@
       <c r="F43" s="13">
         <v>231.76</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="46">
         <v>45109270</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="46">
         <v>4574266</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="47">
         <v>882021</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="47">
         <v>2933058</v>
       </c>
       <c r="K43" s="13">
@@ -3177,16 +3177,16 @@
       <c r="F44" s="13">
         <v>294.57</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="46">
         <v>48430647</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="46">
         <v>5071228</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="47">
         <v>900176</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="47">
         <v>3405110</v>
       </c>
       <c r="K44" s="13">
@@ -3233,16 +3233,16 @@
       <c r="F45" s="13">
         <v>309.73</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="46">
         <v>53775039</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="46">
         <v>5370856</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="47">
         <v>1282724</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="47">
         <v>3742399</v>
       </c>
       <c r="K45" s="13">
@@ -3289,16 +3289,16 @@
       <c r="F46" s="13">
         <v>305.23</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="46">
         <v>50961347</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="46">
         <v>5586031</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="47">
         <v>1343817</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="47">
         <v>3718079</v>
       </c>
       <c r="K46" s="13">
@@ -3345,16 +3345,16 @@
       <c r="F47" s="13">
         <v>305.20999999999998</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="46">
         <v>56546546</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="46">
         <v>6378199</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="47">
         <v>1586763</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="47">
         <v>3738399</v>
       </c>
       <c r="K47" s="13">
@@ -3401,16 +3401,16 @@
       <c r="F48" s="13">
         <v>305.18</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="46">
         <v>57386224</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="46">
         <v>6976520</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="47">
         <v>1790061</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="47">
         <v>4889138</v>
       </c>
       <c r="K48" s="13">
@@ -3457,16 +3457,16 @@
       <c r="F49" s="13">
         <v>305.22000000000003</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="46">
         <v>61958258</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="46">
         <v>8994764</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="47">
         <v>1798275</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="47">
         <v>4824604</v>
       </c>
       <c r="K49" s="13">
@@ -3513,16 +3513,16 @@
       <c r="F50" s="13">
         <v>305.2</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="46">
         <v>55086096</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="46">
         <v>7946772</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="47">
         <v>1812915</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="47">
         <v>4168313</v>
       </c>
       <c r="K50" s="13">
@@ -3569,16 +3569,16 @@
       <c r="F51" s="13">
         <v>305.31</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="46">
         <v>57147027</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="46">
         <v>8606875</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="47">
         <v>1773697</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="47">
         <v>4440834</v>
       </c>
       <c r="K51" s="13">
@@ -3625,16 +3625,16 @@
       <c r="F52" s="13">
         <v>306.39999999999998</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="46">
         <v>66731587</v>
       </c>
-      <c r="H52" s="45">
+      <c r="H52" s="46">
         <v>10093335</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="47">
         <v>1933446</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="47">
         <v>4000559</v>
       </c>
       <c r="K52" s="13">
@@ -3681,16 +3681,16 @@
       <c r="F53" s="13">
         <v>306.05</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="46">
         <v>61558045</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="46">
         <v>10420611</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="47">
         <v>2155852</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="47">
         <v>3672247</v>
       </c>
       <c r="K53" s="13">
@@ -3737,16 +3737,16 @@
       <c r="F54" s="13">
         <v>305.54000000000002</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="46">
         <v>65939434</v>
       </c>
-      <c r="H54" s="45">
+      <c r="H54" s="46">
         <v>11133486</v>
       </c>
-      <c r="I54" s="46">
+      <c r="I54" s="47">
         <v>2020671</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="47">
         <v>3901298</v>
       </c>
       <c r="K54" s="13">
@@ -3793,16 +3793,16 @@
       <c r="F55" s="13">
         <v>305.72000000000003</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="46">
         <v>60307952</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="46">
         <v>11220631</v>
       </c>
-      <c r="I55" s="46">
+      <c r="I55" s="47">
         <v>1788583</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="47">
         <v>3985563</v>
       </c>
       <c r="K55" s="13">
@@ -3849,16 +3849,16 @@
       <c r="F56" s="13">
         <v>305.86</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="46">
         <v>62305387</v>
       </c>
-      <c r="H56" s="45">
+      <c r="H56" s="46">
         <v>12737874</v>
       </c>
-      <c r="I56" s="46">
+      <c r="I56" s="47">
         <v>2058835</v>
       </c>
-      <c r="J56" s="46">
+      <c r="J56" s="47">
         <v>3895102</v>
       </c>
       <c r="K56" s="13">
@@ -3905,16 +3905,16 @@
       <c r="F57" s="13">
         <v>305.67</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="46">
         <v>66810599</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H57" s="46">
         <v>13276810</v>
       </c>
-      <c r="I57" s="46">
+      <c r="I57" s="47">
         <v>2548944</v>
       </c>
-      <c r="J57" s="46">
+      <c r="J57" s="47">
         <v>3872831</v>
       </c>
       <c r="K57" s="13">
@@ -3961,16 +3961,16 @@
       <c r="F58" s="13">
         <v>305.89</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="46">
         <v>64970743</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="46">
         <v>13295500</v>
       </c>
-      <c r="I58" s="46">
+      <c r="I58" s="47">
         <v>3158004</v>
       </c>
-      <c r="J58" s="46">
+      <c r="J58" s="47">
         <v>3595147</v>
       </c>
       <c r="K58" s="13">
@@ -4017,16 +4017,16 @@
       <c r="F59" s="13">
         <v>305.62</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="46">
         <v>72140905</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H59" s="46">
         <v>15052573</v>
       </c>
-      <c r="I59" s="46">
+      <c r="I59" s="47">
         <v>3208724</v>
       </c>
-      <c r="J59" s="46">
+      <c r="J59" s="47">
         <v>3937837</v>
       </c>
       <c r="K59" s="13">
@@ -4073,16 +4073,16 @@
       <c r="F60" s="13">
         <v>305.89999999999998</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="46">
         <v>87928334</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="46">
         <v>15425224</v>
       </c>
-      <c r="I60" s="46">
+      <c r="I60" s="47">
         <v>3255470</v>
       </c>
-      <c r="J60" s="46">
+      <c r="J60" s="47">
         <v>3825970</v>
       </c>
       <c r="K60" s="13">
@@ -4129,16 +4129,16 @@
       <c r="F61" s="13">
         <v>306.31</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="46">
         <v>79622990</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H61" s="46">
         <v>17057465</v>
       </c>
-      <c r="I61" s="46">
+      <c r="I61" s="47">
         <v>3275956</v>
       </c>
-      <c r="J61" s="46">
+      <c r="J61" s="47">
         <v>4508860</v>
       </c>
       <c r="K61" s="13">
@@ -4185,16 +4185,16 @@
       <c r="F62" s="13">
         <v>305.77999999999997</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="46">
         <v>69370277</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="46">
         <v>16102962</v>
       </c>
-      <c r="I62" s="46">
+      <c r="I62" s="47">
         <v>3181510</v>
       </c>
-      <c r="J62" s="46">
+      <c r="J62" s="47">
         <v>4369622</v>
       </c>
       <c r="K62" s="13">
@@ -4241,16 +4241,16 @@
       <c r="F63" s="13">
         <v>305.89999999999998</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="46">
         <v>66329905</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="46">
         <v>16731362</v>
       </c>
-      <c r="I63" s="46">
+      <c r="I63" s="47">
         <v>3072375</v>
       </c>
-      <c r="J63" s="46">
+      <c r="J63" s="47">
         <v>4777447</v>
       </c>
       <c r="K63" s="13">
@@ -4297,16 +4297,16 @@
       <c r="F64" s="13">
         <v>305.74</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="46">
         <v>76670671</v>
       </c>
-      <c r="H64" s="45">
+      <c r="H64" s="46">
         <v>20728441</v>
       </c>
-      <c r="I64" s="46">
+      <c r="I64" s="47">
         <v>3380371</v>
       </c>
-      <c r="J64" s="46">
+      <c r="J64" s="47">
         <v>6107608</v>
       </c>
       <c r="K64" s="13">
@@ -4353,16 +4353,16 @@
       <c r="F65" s="13">
         <v>305.61</v>
       </c>
-      <c r="G65" s="45">
+      <c r="G65" s="46">
         <v>70947764</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H65" s="46">
         <v>20751162</v>
       </c>
-      <c r="I65" s="46">
+      <c r="I65" s="47">
         <v>3495876</v>
       </c>
-      <c r="J65" s="46">
+      <c r="J65" s="47">
         <v>5955903</v>
       </c>
       <c r="K65" s="13">
@@ -4409,16 +4409,16 @@
       <c r="F66" s="13">
         <v>305.83</v>
       </c>
-      <c r="G66" s="45">
+      <c r="G66" s="46">
         <v>75191266</v>
       </c>
-      <c r="H66" s="45">
+      <c r="H66" s="46">
         <v>23180315</v>
       </c>
-      <c r="I66" s="46">
+      <c r="I66" s="47">
         <v>3304791</v>
       </c>
-      <c r="J66" s="46">
+      <c r="J66" s="47">
         <v>7565702</v>
       </c>
       <c r="K66" s="13">
@@ -4465,16 +4465,16 @@
       <c r="F67" s="13">
         <v>305.87</v>
       </c>
-      <c r="G67" s="45">
+      <c r="G67" s="46">
         <v>71278931</v>
       </c>
-      <c r="H67" s="45">
+      <c r="H67" s="46">
         <v>23298442</v>
       </c>
-      <c r="I67" s="46">
+      <c r="I67" s="47">
         <v>3033580</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67" s="47">
         <v>7165260</v>
       </c>
       <c r="K67" s="13">
@@ -4521,16 +4521,16 @@
       <c r="F68" s="13">
         <v>305.81</v>
       </c>
-      <c r="G68" s="45">
+      <c r="G68" s="46">
         <v>72981547</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="46">
         <v>26990305</v>
       </c>
-      <c r="I68" s="46">
+      <c r="I68" s="47">
         <v>3930816</v>
       </c>
-      <c r="J68" s="46">
+      <c r="J68" s="47">
         <v>8448066</v>
       </c>
       <c r="K68" s="13">
@@ -4577,16 +4577,16 @@
       <c r="F69" s="13">
         <v>306.06</v>
       </c>
-      <c r="G69" s="45">
+      <c r="G69" s="46">
         <v>75792100</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H69" s="46">
         <v>29885436</v>
       </c>
-      <c r="I69" s="46">
+      <c r="I69" s="47">
         <v>5002812</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="47">
         <v>8409540</v>
       </c>
       <c r="K69" s="13">
@@ -4633,16 +4633,16 @@
       <c r="F70" s="13">
         <v>306.27</v>
       </c>
-      <c r="G70" s="45">
+      <c r="G70" s="46">
         <v>71496724</v>
       </c>
-      <c r="H70" s="45">
+      <c r="H70" s="46">
         <v>29162526</v>
       </c>
-      <c r="I70" s="46">
+      <c r="I70" s="47">
         <v>5031416</v>
       </c>
-      <c r="J70" s="46">
+      <c r="J70" s="47">
         <v>8040342</v>
       </c>
       <c r="K70" s="13">
@@ -4689,16 +4689,16 @@
       <c r="F71" s="13">
         <v>306.5</v>
       </c>
-      <c r="G71" s="45">
+      <c r="G71" s="46">
         <v>73084212</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="46">
         <v>27727169</v>
       </c>
-      <c r="I71" s="46">
+      <c r="I71" s="47">
         <v>5358319</v>
       </c>
-      <c r="J71" s="46">
+      <c r="J71" s="47">
         <v>9460794</v>
       </c>
       <c r="K71" s="13">
@@ -4745,16 +4745,16 @@
       <c r="F72" s="13">
         <v>306.70999999999998</v>
       </c>
-      <c r="G72" s="45">
+      <c r="G72" s="46">
         <v>73371402</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="46">
         <v>29405429</v>
       </c>
-      <c r="I72" s="46">
+      <c r="I72" s="47">
         <v>5766482</v>
       </c>
-      <c r="J72" s="46">
+      <c r="J72" s="47">
         <v>10904858</v>
       </c>
       <c r="K72" s="13">
@@ -4801,16 +4801,16 @@
       <c r="F73" s="13">
         <v>306.92</v>
       </c>
-      <c r="G73" s="45">
+      <c r="G73" s="46">
         <v>79004508</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="46">
         <v>31926618</v>
       </c>
-      <c r="I73" s="46">
+      <c r="I73" s="47">
         <v>6257553</v>
       </c>
-      <c r="J73" s="46">
+      <c r="J73" s="47">
         <v>13448304</v>
       </c>
       <c r="K73" s="13">
@@ -4857,16 +4857,16 @@
       <c r="F74" s="13">
         <v>306.85000000000002</v>
       </c>
-      <c r="G74" s="45">
+      <c r="G74" s="46">
         <v>68524175</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="46">
         <v>28162746</v>
       </c>
-      <c r="I74" s="46">
+      <c r="I74" s="47">
         <v>6607162</v>
       </c>
-      <c r="J74" s="46">
+      <c r="J74" s="47">
         <v>12402234</v>
       </c>
       <c r="K74" s="13">
@@ -4913,16 +4913,16 @@
       <c r="F75" s="13">
         <v>306.77</v>
       </c>
-      <c r="G75" s="45">
+      <c r="G75" s="46">
         <v>60803325</v>
       </c>
-      <c r="H75" s="45">
+      <c r="H75" s="46">
         <v>25778644</v>
       </c>
-      <c r="I75" s="46">
+      <c r="I75" s="47">
         <v>6347246</v>
       </c>
-      <c r="J75" s="46">
+      <c r="J75" s="47">
         <v>12812336</v>
       </c>
       <c r="K75" s="13">
@@ -4969,16 +4969,16 @@
       <c r="F76" s="13">
         <v>306.92</v>
       </c>
-      <c r="G76" s="45">
+      <c r="G76" s="46">
         <v>73632232</v>
       </c>
-      <c r="H76" s="45">
+      <c r="H76" s="46">
         <v>29820754</v>
       </c>
-      <c r="I76" s="46">
+      <c r="I76" s="47">
         <v>7427703</v>
       </c>
-      <c r="J76" s="46">
+      <c r="J76" s="47">
         <v>16258436</v>
       </c>
       <c r="K76" s="13">
@@ -5025,16 +5025,16 @@
       <c r="F77" s="13">
         <v>306.95999999999998</v>
       </c>
-      <c r="G77" s="45">
+      <c r="G77" s="46">
         <v>75043037</v>
       </c>
-      <c r="H77" s="45">
+      <c r="H77" s="46">
         <v>33368778</v>
       </c>
-      <c r="I77" s="46">
+      <c r="I77" s="47">
         <v>11174073</v>
       </c>
-      <c r="J77" s="46">
+      <c r="J77" s="47">
         <v>19148956</v>
       </c>
       <c r="K77" s="13">
@@ -5081,16 +5081,16 @@
       <c r="F78" s="13">
         <v>306.95</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="46">
         <v>75433302</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="46">
         <v>35466679</v>
       </c>
-      <c r="I78" s="46">
+      <c r="I78" s="47">
         <v>10563897</v>
       </c>
-      <c r="J78" s="46">
+      <c r="J78" s="47">
         <v>21214603</v>
       </c>
       <c r="K78" s="13">
@@ -5137,16 +5137,16 @@
       <c r="F79" s="13">
         <v>306.95</v>
       </c>
-      <c r="G79" s="45">
+      <c r="G79" s="46">
         <v>71183606</v>
       </c>
-      <c r="H79" s="45">
+      <c r="H79" s="46">
         <v>35097558</v>
       </c>
-      <c r="I79" s="46">
+      <c r="I79" s="47">
         <v>5856819</v>
       </c>
-      <c r="J79" s="46">
+      <c r="J79" s="47">
         <v>22937368</v>
       </c>
       <c r="K79" s="13">
@@ -5193,16 +5193,16 @@
       <c r="F80" s="13">
         <v>306.94</v>
       </c>
-      <c r="G80" s="45">
+      <c r="G80" s="46">
         <v>71383197</v>
       </c>
-      <c r="H80" s="45">
+      <c r="H80" s="46">
         <v>39224406</v>
       </c>
-      <c r="I80" s="46">
+      <c r="I80" s="47">
         <v>7331646</v>
       </c>
-      <c r="J80" s="46">
+      <c r="J80" s="47">
         <v>28315044</v>
       </c>
       <c r="K80" s="13">
@@ -5249,16 +5249,16 @@
       <c r="F81" s="13">
         <v>306.93</v>
       </c>
-      <c r="G81" s="45">
+      <c r="G81" s="46">
         <v>73988365</v>
       </c>
-      <c r="H81" s="45">
+      <c r="H81" s="46">
         <v>41379830</v>
       </c>
-      <c r="I81" s="46">
+      <c r="I81" s="47">
         <v>9747397</v>
       </c>
-      <c r="J81" s="46">
+      <c r="J81" s="47">
         <v>37291635</v>
       </c>
       <c r="K81" s="13">
@@ -5305,16 +5305,16 @@
       <c r="F82" s="13">
         <v>306.92</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="46">
         <v>67454875</v>
       </c>
-      <c r="H82" s="45">
+      <c r="H82" s="46">
         <v>40740772</v>
       </c>
-      <c r="I82" s="46">
+      <c r="I82" s="47">
         <v>9613824</v>
       </c>
-      <c r="J82" s="46">
+      <c r="J82" s="47">
         <v>47460653</v>
       </c>
       <c r="K82" s="13">
@@ -5361,16 +5361,16 @@
       <c r="F83" s="13">
         <v>306.95999999999998</v>
       </c>
-      <c r="G83" s="45">
+      <c r="G83" s="46">
         <v>66766722</v>
       </c>
-      <c r="H83" s="45">
+      <c r="H83" s="46">
         <v>41602024</v>
       </c>
-      <c r="I83" s="46">
+      <c r="I83" s="47">
         <v>9135016</v>
       </c>
-      <c r="J83" s="46">
+      <c r="J83" s="47">
         <v>42043290</v>
       </c>
       <c r="K83" s="13">
@@ -5417,16 +5417,16 @@
       <c r="F84" s="13">
         <v>306.95</v>
       </c>
-      <c r="G84" s="45">
+      <c r="G84" s="46">
         <v>65980978</v>
       </c>
-      <c r="H84" s="45">
+      <c r="H84" s="46">
         <v>41833763</v>
       </c>
-      <c r="I84" s="46">
+      <c r="I84" s="47">
         <v>9114595</v>
       </c>
-      <c r="J84" s="46">
+      <c r="J84" s="47">
         <v>48775160</v>
       </c>
       <c r="K84" s="13">
@@ -5473,16 +5473,16 @@
       <c r="F85" s="13">
         <v>306.95</v>
       </c>
-      <c r="G85" s="45">
+      <c r="G85" s="46">
         <v>69626108</v>
       </c>
-      <c r="H85" s="45">
+      <c r="H85" s="46">
         <v>46138228</v>
       </c>
-      <c r="I85" s="46">
+      <c r="I85" s="47">
         <v>10577629</v>
       </c>
-      <c r="J85" s="46">
+      <c r="J85" s="47">
         <v>68605493</v>
       </c>
       <c r="K85" s="13">
@@ -5529,16 +5529,16 @@
       <c r="F86" s="13">
         <v>306.95999999999998</v>
       </c>
-      <c r="G86" s="45">
+      <c r="G86" s="46">
         <v>168525739</v>
       </c>
-      <c r="H86" s="45">
+      <c r="H86" s="46">
         <v>41305041</v>
       </c>
-      <c r="I86" s="46">
+      <c r="I86" s="47">
         <v>317109647</v>
       </c>
-      <c r="J86" s="46">
+      <c r="J86" s="47">
         <v>63405924</v>
       </c>
       <c r="K86" s="13">
@@ -5585,16 +5585,16 @@
       <c r="F87" s="13">
         <v>306.95999999999998</v>
       </c>
-      <c r="G87" s="45">
+      <c r="G87" s="46">
         <v>167770512</v>
       </c>
-      <c r="H87" s="45">
+      <c r="H87" s="46">
         <v>46071669</v>
       </c>
-      <c r="I87" s="46">
+      <c r="I87" s="47">
         <v>335699754</v>
       </c>
-      <c r="J87" s="46">
+      <c r="J87" s="47">
         <v>46214691</v>
       </c>
       <c r="K87" s="13">
@@ -5641,16 +5641,16 @@
       <c r="F88" s="13">
         <v>326.63</v>
       </c>
-      <c r="G88" s="45">
+      <c r="G88" s="46">
         <v>190234195</v>
       </c>
-      <c r="H88" s="45">
+      <c r="H88" s="46">
         <v>52249019</v>
       </c>
-      <c r="I88" s="46">
+      <c r="I88" s="47">
         <v>478339263</v>
       </c>
-      <c r="J88" s="46">
+      <c r="J88" s="47">
         <v>63730361</v>
       </c>
       <c r="K88" s="13">
@@ -5697,16 +5697,16 @@
       <c r="F89" s="13">
         <v>361</v>
       </c>
-      <c r="G89" s="45">
+      <c r="G89" s="46">
         <v>115518329</v>
       </c>
-      <c r="H89" s="45">
+      <c r="H89" s="46">
         <v>40859206</v>
       </c>
-      <c r="I89" s="46">
+      <c r="I89" s="47">
         <v>376054999</v>
       </c>
-      <c r="J89" s="46">
+      <c r="J89" s="47">
         <v>48149409</v>
       </c>
       <c r="K89" s="13">
@@ -5753,16 +5753,16 @@
       <c r="F90" s="13">
         <v>361</v>
       </c>
-      <c r="G90" s="45">
+      <c r="G90" s="46">
         <v>135857274</v>
       </c>
-      <c r="H90" s="45">
+      <c r="H90" s="46">
         <v>48371074</v>
       </c>
-      <c r="I90" s="46">
+      <c r="I90" s="47">
         <v>438264450</v>
       </c>
-      <c r="J90" s="46">
+      <c r="J90" s="47">
         <v>49302496</v>
       </c>
       <c r="K90" s="13">
@@ -5809,16 +5809,16 @@
       <c r="F91" s="13">
         <v>361</v>
       </c>
-      <c r="G91" s="45">
+      <c r="G91" s="46">
         <v>151026271</v>
       </c>
-      <c r="H91" s="45">
+      <c r="H91" s="46">
         <v>49421986</v>
       </c>
-      <c r="I91" s="46">
+      <c r="I91" s="47">
         <v>507471371</v>
       </c>
-      <c r="J91" s="46">
+      <c r="J91" s="47">
         <v>59037651</v>
       </c>
       <c r="K91" s="13">
@@ -5865,16 +5865,16 @@
       <c r="F92" s="13">
         <v>377.19</v>
       </c>
-      <c r="G92" s="45">
+      <c r="G92" s="46">
         <v>170348417</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="46">
         <v>53904356</v>
       </c>
-      <c r="I92" s="46">
+      <c r="I92" s="47">
         <v>572806624</v>
       </c>
-      <c r="J92" s="46">
+      <c r="J92" s="47">
         <v>65218770</v>
       </c>
       <c r="K92" s="13">
@@ -5921,16 +5921,16 @@
       <c r="F93" s="13">
         <v>381</v>
       </c>
-      <c r="G93" s="45">
+      <c r="G93" s="46">
         <v>191354683</v>
       </c>
-      <c r="H93" s="45">
+      <c r="H93" s="46">
         <v>50663508</v>
       </c>
-      <c r="I93" s="46">
+      <c r="I93" s="47">
         <v>613397465</v>
       </c>
-      <c r="J93" s="46">
+      <c r="J93" s="47">
         <v>64964279</v>
       </c>
       <c r="K93" s="13">
@@ -5977,16 +5977,16 @@
       <c r="F94" s="13">
         <v>381</v>
       </c>
-      <c r="G94" s="45">
+      <c r="G94" s="46">
         <v>168325956</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="46">
         <v>58052877</v>
       </c>
-      <c r="I94" s="46">
+      <c r="I94" s="47">
         <v>613955108</v>
       </c>
-      <c r="J94" s="46">
+      <c r="J94" s="47">
         <v>66912707</v>
       </c>
       <c r="K94" s="13">
@@ -6033,16 +6033,16 @@
       <c r="F95" s="13">
         <v>381</v>
       </c>
-      <c r="G95" s="45">
+      <c r="G95" s="46">
         <v>151924854</v>
       </c>
-      <c r="H95" s="45">
+      <c r="H95" s="46">
         <v>68411116</v>
       </c>
-      <c r="I95" s="46">
+      <c r="I95" s="47">
         <v>680837930</v>
       </c>
-      <c r="J95" s="46">
+      <c r="J95" s="47">
         <v>74843927</v>
       </c>
       <c r="K95" s="13">
@@ -6089,16 +6089,16 @@
       <c r="F96" s="13">
         <v>381</v>
       </c>
-      <c r="G96" s="45">
+      <c r="G96" s="46">
         <v>158259049</v>
       </c>
-      <c r="H96" s="45">
+      <c r="H96" s="46">
         <v>68537758</v>
       </c>
-      <c r="I96" s="46">
+      <c r="I96" s="47">
         <v>747664285</v>
       </c>
-      <c r="J96" s="46">
+      <c r="J96" s="47">
         <v>77318921</v>
       </c>
       <c r="K96" s="13">
@@ -6145,16 +6145,16 @@
       <c r="F97" s="13">
         <v>381</v>
       </c>
-      <c r="G97" s="45">
+      <c r="G97" s="46">
         <v>145075140</v>
       </c>
-      <c r="H97" s="45">
+      <c r="H97" s="46">
         <v>77900738</v>
       </c>
-      <c r="I97" s="46">
+      <c r="I97" s="47">
         <v>798947734</v>
       </c>
-      <c r="J97" s="46">
+      <c r="J97" s="47">
         <v>90139553</v>
       </c>
       <c r="K97" s="13">
@@ -6201,16 +6201,16 @@
       <c r="F98" s="13">
         <v>381</v>
       </c>
-      <c r="G98" s="45">
+      <c r="G98" s="46">
         <v>96397612</v>
       </c>
-      <c r="H98" s="45">
+      <c r="H98" s="46">
         <v>166546211</v>
       </c>
-      <c r="I98" s="46">
+      <c r="I98" s="47">
         <v>245917631</v>
       </c>
-      <c r="J98" s="46">
+      <c r="J98" s="47">
         <v>51411911</v>
       </c>
       <c r="K98" s="13">
@@ -6257,16 +6257,16 @@
       <c r="F99" s="13">
         <v>381</v>
       </c>
-      <c r="G99" s="45">
+      <c r="G99" s="46">
         <v>98575736</v>
       </c>
-      <c r="H99" s="45">
+      <c r="H99" s="46">
         <v>168162994</v>
       </c>
-      <c r="I99" s="46">
+      <c r="I99" s="47">
         <v>240174681</v>
       </c>
-      <c r="J99" s="46">
+      <c r="J99" s="47">
         <v>52199634</v>
       </c>
       <c r="K99" s="13">
@@ -6313,16 +6313,16 @@
       <c r="F100" s="13">
         <v>381</v>
       </c>
-      <c r="G100" s="45">
+      <c r="G100" s="46">
         <v>112375140</v>
       </c>
-      <c r="H100" s="45">
+      <c r="H100" s="46">
         <v>195177520</v>
       </c>
-      <c r="I100" s="46">
+      <c r="I100" s="47">
         <v>285610769</v>
       </c>
-      <c r="J100" s="46">
+      <c r="J100" s="47">
         <v>61394658</v>
       </c>
       <c r="K100" s="13">
@@ -6369,16 +6369,16 @@
       <c r="F101" s="13">
         <v>381</v>
       </c>
-      <c r="G101" s="45">
+      <c r="G101" s="46">
         <v>171128135</v>
       </c>
-      <c r="H101" s="45">
+      <c r="H101" s="46">
         <v>197585215</v>
       </c>
-      <c r="I101" s="46">
+      <c r="I101" s="47">
         <v>275879121</v>
       </c>
-      <c r="J101" s="46">
+      <c r="J101" s="47">
         <v>58010554</v>
       </c>
       <c r="K101" s="13">
@@ -6422,19 +6422,19 @@
       <c r="E102" s="13">
         <v>50177680.930585399</v>
       </c>
-      <c r="F102" s="48">
+      <c r="F102" s="49">
         <v>397.65</v>
       </c>
-      <c r="G102" s="45">
+      <c r="G102" s="46">
         <v>95064083</v>
       </c>
-      <c r="H102" s="45">
+      <c r="H102" s="46">
         <v>201456699</v>
       </c>
-      <c r="I102" s="46">
+      <c r="I102" s="47">
         <v>289935823</v>
       </c>
-      <c r="J102" s="46">
+      <c r="J102" s="47">
         <v>50784096</v>
       </c>
       <c r="K102" s="13">
@@ -6483,19 +6483,19 @@
       <c r="E103" s="13">
         <v>50891288.545115069</v>
       </c>
-      <c r="F103" s="48">
+      <c r="F103" s="49">
         <v>410.16</v>
       </c>
-      <c r="G103" s="45">
+      <c r="G103" s="46">
         <v>66921552</v>
       </c>
-      <c r="H103" s="45">
+      <c r="H103" s="46">
         <v>138659307</v>
       </c>
-      <c r="I103" s="46">
+      <c r="I103" s="47">
         <v>291146064</v>
       </c>
-      <c r="J103" s="46">
+      <c r="J103" s="47">
         <v>51172225</v>
       </c>
       <c r="K103" s="13">
@@ -6527,40 +6527,40 @@
       <c r="A104" s="7">
         <v>44378</v>
       </c>
-      <c r="B104" s="49">
+      <c r="B104" s="50">
         <v>16261001.440499762</v>
       </c>
-      <c r="C104" s="49">
+      <c r="C104" s="50">
         <v>23472556.275444999</v>
       </c>
-      <c r="D104" s="50">
+      <c r="D104" s="51">
         <v>19331.90826138854</v>
       </c>
       <c r="E104" s="13">
         <v>52234992.875600196</v>
       </c>
-      <c r="F104" s="48">
+      <c r="F104" s="49">
         <v>410.13</v>
       </c>
-      <c r="G104" s="45">
+      <c r="G104" s="46">
         <v>108812929</v>
       </c>
-      <c r="H104" s="45">
+      <c r="H104" s="46">
         <v>180208347</v>
       </c>
-      <c r="I104" s="51">
+      <c r="I104" s="52">
         <v>276649292</v>
       </c>
-      <c r="J104" s="51">
+      <c r="J104" s="52">
         <v>54712233</v>
       </c>
-      <c r="K104" s="35">
+      <c r="K104" s="36">
         <v>17.377100345666975</v>
       </c>
-      <c r="L104" s="36">
+      <c r="L104" s="37">
         <v>13.720476414776911</v>
       </c>
-      <c r="M104" s="36">
+      <c r="M104" s="37">
         <v>21.031755328004792</v>
       </c>
       <c r="N104" s="13">
@@ -6569,7 +6569,7 @@
       <c r="O104" s="13">
         <v>81946</v>
       </c>
-      <c r="P104" s="37">
+      <c r="P104" s="38">
         <v>165.90553061725188</v>
       </c>
       <c r="Q104" s="20">
@@ -6583,40 +6583,40 @@
       <c r="A105" s="7">
         <v>44409</v>
       </c>
-      <c r="B105" s="49">
+      <c r="B105" s="50">
         <v>16426893.611848477</v>
       </c>
-      <c r="C105" s="49">
+      <c r="C105" s="50">
         <v>24383201.211297091</v>
       </c>
-      <c r="D105" s="50">
+      <c r="D105" s="51">
         <v>135050.94343163073</v>
       </c>
       <c r="E105" s="13">
         <v>55035016.585909605</v>
       </c>
-      <c r="F105" s="48">
+      <c r="F105" s="49">
         <v>410.15</v>
       </c>
-      <c r="G105" s="45">
+      <c r="G105" s="46">
         <v>110860368</v>
       </c>
-      <c r="H105" s="45">
+      <c r="H105" s="46">
         <v>182617418</v>
       </c>
-      <c r="I105" s="51">
+      <c r="I105" s="52">
         <v>283844214</v>
       </c>
-      <c r="J105" s="51">
+      <c r="J105" s="52">
         <v>55214753</v>
       </c>
-      <c r="K105" s="38">
+      <c r="K105" s="39">
         <v>17.009126570970999</v>
       </c>
-      <c r="L105" s="38">
+      <c r="L105" s="39">
         <v>13.408137444229901</v>
       </c>
-      <c r="M105" s="38">
+      <c r="M105" s="39">
         <v>20.302826186546099</v>
       </c>
       <c r="N105" s="13">
@@ -6625,7 +6625,7 @@
       <c r="O105" s="13">
         <v>82372</v>
       </c>
-      <c r="P105" s="39">
+      <c r="P105" s="40">
         <v>164.9087161706403</v>
       </c>
       <c r="Q105" s="20">
@@ -6639,40 +6639,40 @@
       <c r="A106" s="7">
         <v>44440</v>
       </c>
-      <c r="B106" s="49">
+      <c r="B106" s="50">
         <v>15961286.607974024</v>
       </c>
-      <c r="C106" s="49">
+      <c r="C106" s="50">
         <v>24487919.186799064</v>
       </c>
-      <c r="D106" s="50">
+      <c r="D106" s="51">
         <v>933.29239609837532</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="53">
         <v>54769499.744358093</v>
       </c>
-      <c r="F106" s="48">
+      <c r="F106" s="49">
         <v>410.56</v>
       </c>
-      <c r="G106" s="45">
+      <c r="G106" s="46">
         <v>110557413</v>
       </c>
-      <c r="H106" s="45">
+      <c r="H106" s="46">
         <v>180105397</v>
       </c>
-      <c r="I106" s="51">
+      <c r="I106" s="52">
         <v>283490903</v>
       </c>
-      <c r="J106" s="53">
+      <c r="J106" s="54">
         <v>53978772</v>
       </c>
-      <c r="K106" s="42">
+      <c r="K106" s="43">
         <v>16.629867193111252</v>
       </c>
-      <c r="L106" s="43">
+      <c r="L106" s="44">
         <v>13.744763663950891</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="44">
         <v>19.566109225110125</v>
       </c>
       <c r="N106" s="13">
@@ -6681,7 +6681,7 @@
       <c r="O106" s="13">
         <v>81901</v>
       </c>
-      <c r="P106" s="39">
+      <c r="P106" s="40">
         <v>164.85</v>
       </c>
       <c r="Q106" s="20">
@@ -8852,25 +8852,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6DE190-1694-4293-B90E-64F92655451D}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -8881,46 +8881,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>42401</v>
       </c>
@@ -8931,46 +8937,52 @@
         <v>11645338.74</v>
       </c>
       <c r="D2" s="9">
+        <v>6423873.9199999981</v>
+      </c>
+      <c r="E2" s="9">
         <v>15765159.269942412</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>197</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>41189325</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>3833884</v>
       </c>
-      <c r="H2" s="12">
+      <c r="I2" s="12">
         <v>1008220</v>
       </c>
-      <c r="I2" s="12">
+      <c r="J2" s="12">
         <v>4522569</v>
       </c>
-      <c r="J2" s="13">
+      <c r="K2" s="13">
         <v>11.379040910000001</v>
       </c>
-      <c r="K2" s="13">
+      <c r="L2" s="13">
         <v>11.04123991</v>
       </c>
-      <c r="L2" s="13">
+      <c r="M2" s="13">
         <v>11.34767214</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9">
         <v>251172000.00000003</v>
       </c>
-      <c r="N2" s="14">
+      <c r="O2" s="14">
         <v>42088</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>99.8</v>
       </c>
-      <c r="P2" s="20">
+      <c r="Q2" s="20">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R2" s="8">
+        <v>54946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42430</v>
       </c>
@@ -8981,46 +8993,52 @@
         <v>11263685.940000001</v>
       </c>
       <c r="D3" s="9">
+        <v>-860219.42000000179</v>
+      </c>
+      <c r="E3" s="9">
         <v>16288101.143382661</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>197</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>44430115</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>4311844</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="12">
         <v>853363</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>5159701</v>
       </c>
-      <c r="J3" s="13">
+      <c r="K3" s="13">
         <v>12.77470978</v>
       </c>
-      <c r="K3" s="13">
+      <c r="L3" s="13">
         <v>12.169702969999999</v>
       </c>
-      <c r="L3" s="13">
+      <c r="M3" s="13">
         <v>12.74461133</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="9">
         <v>221356000</v>
       </c>
-      <c r="N3" s="14">
+      <c r="O3" s="14">
         <v>42556</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>135.69999999999999</v>
       </c>
-      <c r="P3" s="20">
+      <c r="Q3" s="20">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R3" s="8">
+        <v>18001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42461</v>
       </c>
@@ -9031,46 +9049,52 @@
         <v>14947955.66</v>
       </c>
       <c r="D4" s="9">
+        <v>-656968.83999999985</v>
+      </c>
+      <c r="E4" s="9">
         <v>16766603.337803122</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>197</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>45806594</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>4463599</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>934969</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <v>2857602</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="13">
         <v>13.721044450000001</v>
       </c>
-      <c r="K4" s="13">
+      <c r="L4" s="13">
         <v>13.351791130000001</v>
       </c>
-      <c r="L4" s="13">
+      <c r="M4" s="13">
         <v>13.194166490000001</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>180321000</v>
       </c>
-      <c r="N4" s="14">
+      <c r="O4" s="14">
         <v>43017</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>162.80000000000001</v>
       </c>
-      <c r="P4" s="20">
+      <c r="Q4" s="20">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R4" s="8">
+        <v>240512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42491</v>
       </c>
@@ -9081,46 +9105,52 @@
         <v>12877712.43</v>
       </c>
       <c r="D5" s="9">
+        <v>395923.75999999791</v>
+      </c>
+      <c r="E5" s="9">
         <v>16475096.454971693</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>197</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>45474823</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>4554184</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>841026</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>2852858</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <v>15.577265110000001</v>
       </c>
-      <c r="K5" s="13">
+      <c r="L5" s="13">
         <v>15.05380006</v>
       </c>
-      <c r="L5" s="13">
+      <c r="M5" s="13">
         <v>14.86099888</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>179430000</v>
       </c>
-      <c r="N5" s="14">
+      <c r="O5" s="14">
         <v>43310</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>150.30000000000001</v>
       </c>
-      <c r="P5" s="20">
+      <c r="Q5" s="20">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R5" s="8">
+        <v>25588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42522</v>
       </c>
@@ -9131,46 +9161,52 @@
         <v>12474981.960000001</v>
       </c>
       <c r="D6" s="9">
+        <v>622139.4299999997</v>
+      </c>
+      <c r="E6" s="9">
         <v>19587409.783008225</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>231.76</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>45109270</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>4574266</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>882021</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>2933058</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13">
         <v>16.48016251</v>
       </c>
-      <c r="K6" s="13">
+      <c r="L6" s="13">
         <v>16.22447644</v>
       </c>
-      <c r="L6" s="13">
+      <c r="M6" s="13">
         <v>15.30204204</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>158447000</v>
       </c>
-      <c r="N6" s="14">
+      <c r="O6" s="14">
         <v>43899</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>148.5</v>
       </c>
-      <c r="P6" s="20">
+      <c r="Q6" s="20">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R6" s="8">
+        <v>136721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42552</v>
       </c>
@@ -9181,46 +9217,52 @@
         <v>12867067.039999999</v>
       </c>
       <c r="D7" s="9">
+        <v>662658.85000000149</v>
+      </c>
+      <c r="E7" s="9">
         <v>21075388.652935211</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>294.57</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="11">
         <v>48430647</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>5071228</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>900176</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>3405110</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>17.126662840000002</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>16.928835249999999</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>15.79918773</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>341724999.99999994</v>
       </c>
-      <c r="N7" s="14">
+      <c r="O7" s="14">
         <v>44233</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>147.69999999999999</v>
       </c>
-      <c r="P7" s="20">
+      <c r="Q7" s="20">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R7" s="8">
+        <v>66843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42583</v>
       </c>
@@ -9231,46 +9273,52 @@
         <v>14007796.549999999</v>
       </c>
       <c r="D8" s="9">
+        <v>421829.59000000358</v>
+      </c>
+      <c r="E8" s="9">
         <v>20704652.498003017</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>309.73</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="11">
         <v>53775039</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>5370856</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>1282724</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>3742399</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13">
         <v>17.60932017</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="13">
         <v>17.207718010000001</v>
       </c>
-      <c r="L8" s="13">
+      <c r="M8" s="13">
         <v>16.427390970000001</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>214145000</v>
       </c>
-      <c r="N8" s="14">
+      <c r="O8" s="14">
         <v>44928</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>147.30000000000001</v>
       </c>
-      <c r="P8" s="20">
+      <c r="Q8" s="20">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R8" s="8">
+        <v>41945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42614</v>
       </c>
@@ -9281,46 +9329,52 @@
         <v>9429960.4299999997</v>
       </c>
       <c r="D9" s="9">
+        <v>5653528.3399999999</v>
+      </c>
+      <c r="E9" s="9">
         <v>21266278.698590972</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>305.23</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="11">
         <v>50961347</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>5586031</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>1343817</v>
       </c>
-      <c r="I9" s="12">
+      <c r="J9" s="12">
         <v>3718079</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K9" s="13">
         <v>17.85203855</v>
       </c>
-      <c r="K9" s="13">
+      <c r="L9" s="13">
         <v>17.66614903</v>
       </c>
-      <c r="L9" s="13">
+      <c r="M9" s="13">
         <v>16.622122340000001</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>242623000</v>
       </c>
-      <c r="N9" s="14">
+      <c r="O9" s="14">
         <v>45277</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>146.30000000000001</v>
       </c>
-      <c r="P9" s="20">
+      <c r="Q9" s="20">
         <v>42.077442817081327</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R9" s="8">
+        <v>54959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42644</v>
       </c>
@@ -9331,46 +9385,52 @@
         <v>8750872.0299999993</v>
       </c>
       <c r="D10" s="9">
+        <v>6888362.8200000003</v>
+      </c>
+      <c r="E10" s="9">
         <v>24189500.516430289</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="10">
         <v>305.20999999999998</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="11">
         <v>56546546</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>6378199</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <v>1586763</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="12">
         <v>3738399</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K10" s="13">
         <v>18.32965914</v>
       </c>
-      <c r="K10" s="13">
+      <c r="L10" s="13">
         <v>18.066872879999998</v>
       </c>
-      <c r="L10" s="13">
+      <c r="M10" s="13">
         <v>17.089762579999999</v>
       </c>
-      <c r="M10" s="9">
+      <c r="N10" s="9">
         <v>188353000</v>
       </c>
-      <c r="N10" s="14">
+      <c r="O10" s="14">
         <v>45546</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>145.9</v>
       </c>
-      <c r="P10" s="20">
+      <c r="Q10" s="20">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R10" s="8">
+        <v>2045.9999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42675</v>
       </c>
@@ -9381,46 +9441,52 @@
         <v>11128693.879999999</v>
       </c>
       <c r="D11" s="9">
+        <v>7540979.5199999996</v>
+      </c>
+      <c r="E11" s="9">
         <v>22739002.766580675</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>305.18</v>
       </c>
-      <c r="F11" s="11">
+      <c r="G11" s="11">
         <v>57386224</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>6976520</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>1790061</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="12">
         <v>4889138</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="13">
         <v>18.47616472</v>
       </c>
-      <c r="K11" s="13">
+      <c r="L11" s="13">
         <v>18.241404620000001</v>
       </c>
-      <c r="L11" s="13">
+      <c r="M11" s="13">
         <v>17.190540720000001</v>
       </c>
-      <c r="M11" s="9">
+      <c r="N11" s="9">
         <v>218865000</v>
       </c>
-      <c r="N11" s="14">
+      <c r="O11" s="14">
         <v>46025</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>146.69999999999999</v>
       </c>
-      <c r="P11" s="20">
+      <c r="Q11" s="20">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R11" s="8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42705</v>
       </c>
@@ -9431,46 +9497,52 @@
         <v>13517467.810000002</v>
       </c>
       <c r="D12" s="9">
+        <v>9122523.4100000001</v>
+      </c>
+      <c r="E12" s="9">
         <v>23364747.703018747</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="10">
         <v>305.22000000000003</v>
       </c>
-      <c r="F12" s="11">
+      <c r="G12" s="11">
         <v>61958258</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>8994764</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="12">
         <v>1798275</v>
       </c>
-      <c r="I12" s="12">
+      <c r="J12" s="12">
         <v>4824604</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>18.546963779999999</v>
       </c>
-      <c r="K12" s="13">
+      <c r="L12" s="13">
         <v>18.05245189</v>
       </c>
-      <c r="L12" s="13">
+      <c r="M12" s="13">
         <v>17.388183860000002</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="9">
         <v>246887999.99999997</v>
       </c>
-      <c r="N12" s="14">
+      <c r="O12" s="14">
         <v>46291</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>146.69999999999999</v>
       </c>
-      <c r="P12" s="20">
+      <c r="Q12" s="20">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R12" s="8">
+        <v>401727.99999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42736</v>
       </c>
@@ -9481,46 +9553,52 @@
         <v>12981057.49</v>
       </c>
       <c r="D13" s="9">
+        <v>8295968.9200000018</v>
+      </c>
+      <c r="E13" s="9">
         <v>22905214.41370602</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>305.2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>55086096</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>7946772</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="12">
         <v>1812915</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="12">
         <v>4168313</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K13" s="13">
         <v>18.71884077</v>
       </c>
-      <c r="K13" s="13">
+      <c r="L13" s="13">
         <v>17.866800649999998</v>
       </c>
-      <c r="L13" s="13">
+      <c r="M13" s="13">
         <v>17.81824026</v>
       </c>
-      <c r="M13" s="9">
+      <c r="N13" s="9">
         <v>205984000.00000003</v>
       </c>
-      <c r="N13" s="14">
+      <c r="O13" s="14">
         <v>46883</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>148.69999999999999</v>
       </c>
-      <c r="P13" s="20">
+      <c r="Q13" s="20">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R13" s="8">
+        <v>69102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>42767</v>
       </c>
@@ -9531,46 +9609,52 @@
         <v>12939764.670000002</v>
       </c>
       <c r="D14" s="9">
+        <v>6689002.25</v>
+      </c>
+      <c r="E14" s="9">
         <v>24004666.613984164</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <v>305.31</v>
       </c>
-      <c r="F14" s="11">
+      <c r="G14" s="11">
         <v>57147027</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>8606875</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>1773697</v>
       </c>
-      <c r="I14" s="12">
+      <c r="J14" s="12">
         <v>4440834</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="13">
         <v>17.78040223</v>
       </c>
-      <c r="K14" s="13">
+      <c r="L14" s="13">
         <v>16.011470039999999</v>
       </c>
-      <c r="L14" s="13">
+      <c r="M14" s="13">
         <v>18.528148349999999</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>286485000</v>
       </c>
-      <c r="N14" s="14">
+      <c r="O14" s="14">
         <v>47241</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>149.80000000000001</v>
       </c>
-      <c r="P14" s="20">
+      <c r="Q14" s="20">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="8">
+        <v>55140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>42795</v>
       </c>
@@ -9581,46 +9665,52 @@
         <v>12004828.85</v>
       </c>
       <c r="D15" s="9">
+        <v>-522091.82999999821</v>
+      </c>
+      <c r="E15" s="9">
         <v>24608946.011091035</v>
       </c>
-      <c r="E15" s="10">
+      <c r="F15" s="10">
         <v>306.39999999999998</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>66731587</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>10093335</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>1933446</v>
       </c>
-      <c r="I15" s="12">
+      <c r="J15" s="12">
         <v>4000559</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K15" s="13">
         <v>17.25554443</v>
       </c>
-      <c r="K15" s="13">
+      <c r="L15" s="13">
         <v>15.404487899999999</v>
       </c>
-      <c r="L15" s="13">
+      <c r="M15" s="13">
         <v>18.436096790000001</v>
       </c>
-      <c r="M15" s="9">
+      <c r="N15" s="9">
         <v>306016000</v>
       </c>
-      <c r="N15" s="14">
+      <c r="O15" s="14">
         <v>47534</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>149.4</v>
       </c>
-      <c r="P15" s="20">
+      <c r="Q15" s="20">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R15" s="8">
+        <v>358396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>42826</v>
       </c>
@@ -9631,46 +9721,52 @@
         <v>11530772.569999998</v>
       </c>
       <c r="D16" s="9">
+        <v>672440.20000000298</v>
+      </c>
+      <c r="E16" s="9">
         <v>23941024.16920745</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="10">
         <v>306.05</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G16" s="11">
         <v>61558045</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="11">
         <v>10420611</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>2155852</v>
       </c>
-      <c r="I16" s="12">
+      <c r="J16" s="12">
         <v>3672247</v>
       </c>
-      <c r="J16" s="13">
+      <c r="K16" s="13">
         <v>17.24441882</v>
       </c>
-      <c r="K16" s="13">
+      <c r="L16" s="13">
         <v>14.75027388</v>
       </c>
-      <c r="L16" s="13">
+      <c r="M16" s="13">
         <v>19.303070940000001</v>
       </c>
-      <c r="M16" s="9">
+      <c r="N16" s="9">
         <v>297097000</v>
       </c>
-      <c r="N16" s="14">
+      <c r="O16" s="14">
         <v>47887</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>149.9</v>
       </c>
-      <c r="P16" s="20">
+      <c r="Q16" s="20">
         <v>47.670392643214875</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="8">
+        <v>80010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>42856</v>
       </c>
@@ -9681,46 +9777,52 @@
         <v>12063180.74</v>
       </c>
       <c r="D17" s="9">
+        <v>6017096.1700000018</v>
+      </c>
+      <c r="E17" s="9">
         <v>24066546.05899103</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>305.54000000000002</v>
       </c>
-      <c r="F17" s="11">
+      <c r="G17" s="11">
         <v>65939434</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="11">
         <v>11133486</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>2020671</v>
       </c>
-      <c r="I17" s="12">
+      <c r="J17" s="12">
         <v>3901298</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <v>16.2513839</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L17" s="13">
         <v>13.01643178</v>
       </c>
-      <c r="L17" s="13">
+      <c r="M17" s="13">
         <v>19.266167110000001</v>
       </c>
-      <c r="M17" s="9">
+      <c r="N17" s="9">
         <v>238085999.99999994</v>
       </c>
-      <c r="N17" s="14">
+      <c r="O17" s="14">
         <v>48259</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>150.69999999999999</v>
       </c>
-      <c r="P17" s="20">
+      <c r="Q17" s="20">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="8">
+        <v>85518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>42887</v>
       </c>
@@ -9731,46 +9833,52 @@
         <v>12436369.820000002</v>
       </c>
       <c r="D18" s="9">
+        <v>5116594.8699999973</v>
+      </c>
+      <c r="E18" s="9">
         <v>25284278.097814731</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F18" s="10">
         <v>305.72000000000003</v>
       </c>
-      <c r="F18" s="11">
+      <c r="G18" s="11">
         <v>60307952</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>11220631</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="12">
         <v>1788583</v>
       </c>
-      <c r="I18" s="12">
+      <c r="J18" s="12">
         <v>3985563</v>
       </c>
-      <c r="J18" s="13">
+      <c r="K18" s="13">
         <v>16.09839758</v>
       </c>
-      <c r="K18" s="13">
+      <c r="L18" s="13">
         <v>12.455039149999999</v>
       </c>
-      <c r="L18" s="13">
+      <c r="M18" s="13">
         <v>19.91472993</v>
       </c>
-      <c r="M18" s="9">
+      <c r="N18" s="9">
         <v>254027000</v>
       </c>
-      <c r="N18" s="14">
+      <c r="O18" s="14">
         <v>48863</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>150.30000000000001</v>
       </c>
-      <c r="P18" s="20">
+      <c r="Q18" s="20">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18" s="8">
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>42917</v>
       </c>
@@ -9781,46 +9889,52 @@
         <v>11918055.529999999</v>
       </c>
       <c r="D19" s="9">
+        <v>5728199.5700000003</v>
+      </c>
+      <c r="E19" s="9">
         <v>25827918.611793436</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F19" s="10">
         <v>305.86</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <v>62305387</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>12737874</v>
       </c>
-      <c r="H19" s="12">
+      <c r="I19" s="12">
         <v>2058835</v>
       </c>
-      <c r="I19" s="12">
+      <c r="J19" s="12">
         <v>3895102</v>
       </c>
-      <c r="J19" s="13">
+      <c r="K19" s="13">
         <v>16.05290961</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L19" s="13">
         <v>12.206613819999999</v>
       </c>
-      <c r="L19" s="13">
+      <c r="M19" s="13">
         <v>20.283657380000001</v>
       </c>
-      <c r="M19" s="9">
+      <c r="N19" s="9">
         <v>362433999.99999994</v>
       </c>
-      <c r="N19" s="14">
+      <c r="O19" s="14">
         <v>49258</v>
       </c>
-      <c r="O19" s="21">
+      <c r="P19" s="21">
         <v>148.20722729222726</v>
       </c>
-      <c r="P19" s="20">
+      <c r="Q19" s="20">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="8">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>42948</v>
       </c>
@@ -9831,46 +9945,52 @@
         <v>13157335.680000002</v>
       </c>
       <c r="D20" s="9">
+        <v>4178644.7399999984</v>
+      </c>
+      <c r="E20" s="9">
         <v>26481220.555686399</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F20" s="10">
         <v>305.67</v>
       </c>
-      <c r="F20" s="11">
+      <c r="G20" s="11">
         <v>66810599</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>13276810</v>
       </c>
-      <c r="H20" s="12">
+      <c r="I20" s="12">
         <v>2548944</v>
       </c>
-      <c r="I20" s="12">
+      <c r="J20" s="12">
         <v>3872831</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="13">
         <v>16.011501599999999</v>
       </c>
-      <c r="K20" s="13">
+      <c r="L20" s="13">
         <v>12.295631650000001</v>
       </c>
-      <c r="L20" s="13">
+      <c r="M20" s="13">
         <v>20.250887299999999</v>
       </c>
-      <c r="M20" s="9">
+      <c r="N20" s="9">
         <v>412267199.99999994</v>
       </c>
-      <c r="N20" s="14">
+      <c r="O20" s="14">
         <v>49606</v>
       </c>
-      <c r="O20" s="22">
+      <c r="P20" s="22">
         <v>144.4343314248577</v>
       </c>
-      <c r="P20" s="20">
+      <c r="Q20" s="20">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R20" s="8">
+        <v>115347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>42979</v>
       </c>
@@ -9881,46 +10001,52 @@
         <v>9741503.0399999991</v>
       </c>
       <c r="D21" s="9">
+        <v>9690141.4400000013</v>
+      </c>
+      <c r="E21" s="9">
         <v>28909619.609585196</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="10">
         <v>305.89</v>
       </c>
-      <c r="F21" s="11">
+      <c r="G21" s="11">
         <v>64970743</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="11">
         <v>13295500</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <v>3158004</v>
       </c>
-      <c r="I21" s="12">
+      <c r="J21" s="12">
         <v>3595147</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K21" s="13">
         <v>15.979000299999999</v>
       </c>
-      <c r="K21" s="13">
+      <c r="L21" s="13">
         <v>12.12343053</v>
       </c>
-      <c r="L21" s="13">
+      <c r="M21" s="13">
         <v>20.32071801</v>
       </c>
-      <c r="M21" s="9">
+      <c r="N21" s="9">
         <v>495917015.4034099</v>
       </c>
-      <c r="N21" s="14">
+      <c r="O21" s="14">
         <v>49823</v>
       </c>
-      <c r="O21" s="22">
+      <c r="P21" s="22">
         <v>144.51740498834323</v>
       </c>
-      <c r="P21" s="20">
+      <c r="Q21" s="20">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R21" s="8">
+        <v>116347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43009</v>
       </c>
@@ -9931,46 +10057,52 @@
         <v>10386271.489999998</v>
       </c>
       <c r="D22" s="9">
+        <v>8873141.9300000034</v>
+      </c>
+      <c r="E22" s="9">
         <v>28431602.773505781</v>
       </c>
-      <c r="E22" s="10">
+      <c r="F22" s="10">
         <v>305.62</v>
       </c>
-      <c r="F22" s="11">
+      <c r="G22" s="11">
         <v>72140905</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="11">
         <v>15052573</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>3208724</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J22" s="12">
         <v>3937837</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
         <v>15.905236159999999</v>
       </c>
-      <c r="K22" s="13">
+      <c r="L22" s="13">
         <v>12.141546419999999</v>
       </c>
-      <c r="L22" s="13">
+      <c r="M22" s="13">
         <v>20.306168599999999</v>
       </c>
-      <c r="M22" s="9">
+      <c r="N22" s="9">
         <v>398065000.00000006</v>
       </c>
-      <c r="N22" s="14">
+      <c r="O22" s="14">
         <v>50229</v>
       </c>
-      <c r="O22" s="22">
+      <c r="P22" s="22">
         <v>145.99138778627272</v>
       </c>
-      <c r="P22" s="20">
+      <c r="Q22" s="20">
         <v>55.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="8">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43040</v>
       </c>
@@ -9981,46 +10113,52 @@
         <v>14608742.65</v>
       </c>
       <c r="D23" s="9">
+        <v>6426629.7300000004</v>
+      </c>
+      <c r="E23" s="9">
         <v>30505871.034056008</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>305.89999999999998</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>87928334</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>15425224</v>
       </c>
-      <c r="H23" s="12">
+      <c r="I23" s="12">
         <v>3255470</v>
       </c>
-      <c r="I23" s="12">
+      <c r="J23" s="12">
         <v>3825970</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="13">
         <v>15.9013876</v>
       </c>
-      <c r="K23" s="13">
+      <c r="L23" s="13">
         <v>12.20613017</v>
       </c>
-      <c r="L23" s="13">
+      <c r="M23" s="13">
         <v>20.308130989999999</v>
       </c>
-      <c r="M23" s="9">
+      <c r="N23" s="9">
         <v>417745000</v>
       </c>
-      <c r="N23" s="14">
+      <c r="O23" s="14">
         <v>50649</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23" s="22">
         <v>145.60432432432432</v>
       </c>
-      <c r="P23" s="20">
+      <c r="Q23" s="20">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R23" s="8">
+        <v>73621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43070</v>
       </c>
@@ -10031,46 +10169,52 @@
         <v>14216822.569999998</v>
       </c>
       <c r="D24" s="9">
+        <v>7552346.0400000028</v>
+      </c>
+      <c r="E24" s="9">
         <v>31226685.865743715</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="10">
         <v>306.31</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>79622990</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>17057465</v>
       </c>
-      <c r="H24" s="12">
+      <c r="I24" s="12">
         <v>3275956</v>
       </c>
-      <c r="I24" s="12">
+      <c r="J24" s="12">
         <v>4508860</v>
       </c>
-      <c r="J24" s="13">
+      <c r="K24" s="13">
         <v>15.37161259</v>
       </c>
-      <c r="K24" s="13">
+      <c r="L24" s="13">
         <v>12.08895983</v>
       </c>
-      <c r="L24" s="13">
+      <c r="M24" s="13">
         <v>19.415191889999999</v>
       </c>
-      <c r="M24" s="9">
+      <c r="N24" s="9">
         <v>410230000</v>
       </c>
-      <c r="N24" s="14">
+      <c r="O24" s="14">
         <v>50909</v>
       </c>
-      <c r="O24" s="22">
+      <c r="P24" s="22">
         <v>171.78608230887644</v>
       </c>
-      <c r="P24" s="20">
+      <c r="Q24" s="20">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R24" s="8">
+        <v>369428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43101</v>
       </c>
@@ -10081,46 +10225,52 @@
         <v>14720857.360000001</v>
       </c>
       <c r="D25" s="9">
+        <v>6690459.8399999999</v>
+      </c>
+      <c r="E25" s="9">
         <v>33732077.094155677</v>
       </c>
-      <c r="E25" s="10">
+      <c r="F25" s="10">
         <v>305.77999999999997</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>69370277</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>16102962</v>
       </c>
-      <c r="H25" s="12">
+      <c r="I25" s="12">
         <v>3181510</v>
       </c>
-      <c r="I25" s="12">
+      <c r="J25" s="12">
         <v>4369622</v>
       </c>
-      <c r="J25" s="13">
+      <c r="K25" s="13">
         <v>15.12674236</v>
       </c>
-      <c r="K25" s="13">
+      <c r="L25" s="13">
         <v>12.090410500000001</v>
       </c>
-      <c r="L25" s="13">
+      <c r="M25" s="13">
         <v>18.91908428</v>
       </c>
-      <c r="M25" s="9">
+      <c r="N25" s="9">
         <v>389438412.68830001</v>
       </c>
-      <c r="N25" s="14">
+      <c r="O25" s="14">
         <v>51480</v>
       </c>
-      <c r="O25" s="22">
+      <c r="P25" s="22">
         <v>190.87488880688369</v>
       </c>
-      <c r="P25" s="20">
+      <c r="Q25" s="20">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R25" s="8">
+        <v>196655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43132</v>
       </c>
@@ -10131,46 +10281,52 @@
         <v>14056319.379999999</v>
       </c>
       <c r="D26" s="9">
+        <v>8545244.0199999996</v>
+      </c>
+      <c r="E26" s="9">
         <v>35310215.625578411</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F26" s="10">
         <v>305.89999999999998</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>66329905</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>16731362</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="12">
         <v>3072375</v>
       </c>
-      <c r="I26" s="12">
+      <c r="J26" s="12">
         <v>4777447</v>
       </c>
-      <c r="J26" s="13">
+      <c r="K26" s="13">
         <v>14.32961336</v>
       </c>
-      <c r="K26" s="13">
+      <c r="L26" s="13">
         <v>11.707293699999999</v>
       </c>
-      <c r="L26" s="13">
+      <c r="M26" s="13">
         <v>17.58758649</v>
       </c>
-      <c r="M26" s="9">
+      <c r="N26" s="9">
         <v>436888309.85510004</v>
       </c>
-      <c r="N26" s="14">
+      <c r="O26" s="14">
         <v>51774</v>
       </c>
-      <c r="O26" s="22">
+      <c r="P26" s="22">
         <v>172.46054996605204</v>
       </c>
-      <c r="P26" s="20">
+      <c r="Q26" s="20">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R26" s="8">
+        <v>166406.99999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43160</v>
       </c>
@@ -10181,46 +10337,52 @@
         <v>13729710.549999999</v>
       </c>
       <c r="D27" s="9">
+        <v>3507547.5800000019</v>
+      </c>
+      <c r="E27" s="9">
         <v>34353716.699167095</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F27" s="10">
         <v>305.74</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>76670671</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>20728441</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="12">
         <v>3380371</v>
       </c>
-      <c r="I27" s="12">
+      <c r="J27" s="12">
         <v>6107608</v>
       </c>
-      <c r="J27" s="13">
+      <c r="K27" s="13">
         <v>13.33717628</v>
       </c>
-      <c r="K27" s="13">
+      <c r="L27" s="13">
         <v>11.18107075</v>
       </c>
-      <c r="L27" s="13">
+      <c r="M27" s="13">
         <v>16.079601449999998</v>
       </c>
-      <c r="M27" s="9">
+      <c r="N27" s="9">
         <v>461732000</v>
       </c>
-      <c r="N27" s="14">
+      <c r="O27" s="14">
         <v>52168</v>
       </c>
-      <c r="O27" s="22">
+      <c r="P27" s="22">
         <v>163.39486486486484</v>
       </c>
-      <c r="P27" s="20">
+      <c r="Q27" s="20">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R27" s="8">
+        <v>272216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43191</v>
       </c>
@@ -10231,46 +10393,52 @@
         <v>14171137.819999998</v>
       </c>
       <c r="D28" s="9">
+        <v>2864693.6300000027</v>
+      </c>
+      <c r="E28" s="9">
         <v>34185938.157437354</v>
       </c>
-      <c r="E28" s="10">
+      <c r="F28" s="10">
         <v>305.61</v>
       </c>
-      <c r="F28" s="11">
+      <c r="G28" s="11">
         <v>70947764</v>
       </c>
-      <c r="G28" s="11">
+      <c r="H28" s="11">
         <v>20751162</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="12">
         <v>3495876</v>
       </c>
-      <c r="I28" s="12">
+      <c r="J28" s="12">
         <v>5955903</v>
       </c>
-      <c r="J28" s="13">
+      <c r="K28" s="13">
         <v>12.48233943</v>
       </c>
-      <c r="K28" s="13">
+      <c r="L28" s="13">
         <v>10.920183160000001</v>
       </c>
-      <c r="L28" s="13">
+      <c r="M28" s="13">
         <v>14.799126080000001</v>
       </c>
-      <c r="M28" s="9">
+      <c r="N28" s="9">
         <v>460766661.99289</v>
       </c>
-      <c r="N28" s="14">
+      <c r="O28" s="14">
         <v>52963</v>
       </c>
-      <c r="O28" s="22">
+      <c r="P28" s="22">
         <v>151.39594594594593</v>
       </c>
-      <c r="P28" s="20">
+      <c r="Q28" s="20">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R28" s="8">
+        <v>123522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>43221</v>
       </c>
@@ -10281,46 +10449,52 @@
         <v>13808104.349999998</v>
       </c>
       <c r="D29" s="9">
+        <v>3551347.620000001</v>
+      </c>
+      <c r="E29" s="9">
         <v>34367230.724985592</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F29" s="10">
         <v>305.83</v>
       </c>
-      <c r="F29" s="11">
+      <c r="G29" s="11">
         <v>75191266</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="11">
         <v>23180315</v>
       </c>
-      <c r="H29" s="12">
+      <c r="I29" s="12">
         <v>3304791</v>
       </c>
-      <c r="I29" s="12">
+      <c r="J29" s="12">
         <v>7565702</v>
       </c>
-      <c r="J29" s="13">
+      <c r="K29" s="13">
         <v>11.60783771</v>
       </c>
-      <c r="K29" s="13">
+      <c r="L29" s="13">
         <v>10.710226759999999</v>
       </c>
-      <c r="L29" s="13">
+      <c r="M29" s="13">
         <v>13.447811339999999</v>
       </c>
-      <c r="M29" s="9">
+      <c r="N29" s="9">
         <v>431367556.53946996</v>
       </c>
-      <c r="N29" s="14">
+      <c r="O29" s="14">
         <v>53620</v>
       </c>
-      <c r="O29" s="22">
+      <c r="P29" s="22">
         <v>150.16540540540541</v>
       </c>
-      <c r="P29" s="20">
+      <c r="Q29" s="20">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R29" s="8">
+        <v>105887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43252</v>
       </c>
@@ -10331,46 +10505,52 @@
         <v>15007927.49</v>
       </c>
       <c r="D30" s="9">
+        <v>3013346.4199999981</v>
+      </c>
+      <c r="E30" s="9">
         <v>34338420.044530019</v>
       </c>
-      <c r="E30" s="10">
+      <c r="F30" s="10">
         <v>305.87</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
         <v>71278931</v>
       </c>
-      <c r="G30" s="11">
+      <c r="H30" s="11">
         <v>23298442</v>
       </c>
-      <c r="H30" s="12">
+      <c r="I30" s="12">
         <v>3033580</v>
       </c>
-      <c r="I30" s="12">
+      <c r="J30" s="12">
         <v>7165260</v>
       </c>
-      <c r="J30" s="13">
+      <c r="K30" s="13">
         <v>11.23080676</v>
       </c>
-      <c r="K30" s="13">
+      <c r="L30" s="13">
         <v>10.38661113</v>
       </c>
-      <c r="L30" s="13">
+      <c r="M30" s="13">
         <v>12.97650393</v>
       </c>
-      <c r="M30" s="9">
+      <c r="N30" s="9">
         <v>505926803.79942995</v>
       </c>
-      <c r="N30" s="14">
+      <c r="O30" s="14">
         <v>54321</v>
       </c>
-      <c r="O30" s="22">
+      <c r="P30" s="22">
         <v>148.08691436249478</v>
       </c>
-      <c r="P30" s="20">
+      <c r="Q30" s="20">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R30" s="8">
+        <v>46921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43282</v>
       </c>
@@ -10381,46 +10561,52 @@
         <v>14843277.440000001</v>
       </c>
       <c r="D31" s="9">
+        <v>4408115.3900000006</v>
+      </c>
+      <c r="E31" s="9">
         <v>36501477.607438654</v>
       </c>
-      <c r="E31" s="10">
+      <c r="F31" s="10">
         <v>305.81</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>72981547</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31" s="11">
         <v>26990305</v>
       </c>
-      <c r="H31" s="12">
+      <c r="I31" s="12">
         <v>3930816</v>
       </c>
-      <c r="I31" s="12">
+      <c r="J31" s="12">
         <v>8448066</v>
       </c>
-      <c r="J31" s="13">
+      <c r="K31" s="13">
         <v>11.14183148</v>
       </c>
-      <c r="K31" s="13">
+      <c r="L31" s="13">
         <v>10.183043639999999</v>
       </c>
-      <c r="L31" s="13">
+      <c r="M31" s="13">
         <v>12.84998487</v>
       </c>
-      <c r="M31" s="9">
+      <c r="N31" s="9">
         <v>513537946.59349</v>
       </c>
-      <c r="N31" s="14">
+      <c r="O31" s="14">
         <v>54941</v>
       </c>
-      <c r="O31" s="22">
+      <c r="P31" s="22">
         <v>146.81857281715375</v>
       </c>
-      <c r="P31" s="20">
+      <c r="Q31" s="20">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R31" s="8">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43313</v>
       </c>
@@ -10431,46 +10617,52 @@
         <v>15842261.969999999</v>
       </c>
       <c r="D32" s="9">
+        <v>2275254.4800000004</v>
+      </c>
+      <c r="E32" s="9">
         <v>35648613.244884714</v>
       </c>
-      <c r="E32" s="10">
+      <c r="F32" s="10">
         <v>306.06</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G32" s="11">
         <v>75792100</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H32" s="11">
         <v>29885436</v>
       </c>
-      <c r="H32" s="12">
+      <c r="I32" s="12">
         <v>5002812</v>
       </c>
-      <c r="I32" s="12">
+      <c r="J32" s="12">
         <v>8409540</v>
       </c>
-      <c r="J32" s="13">
+      <c r="K32" s="13">
         <v>11.22743567</v>
       </c>
-      <c r="K32" s="13">
+      <c r="L32" s="13">
         <v>10.01526121</v>
       </c>
-      <c r="L32" s="13">
+      <c r="M32" s="13">
         <v>13.15833349</v>
       </c>
-      <c r="M32" s="9">
+      <c r="N32" s="9">
         <v>403589614.67307007</v>
       </c>
-      <c r="N32" s="14">
+      <c r="O32" s="14">
         <v>55388</v>
       </c>
-      <c r="O32" s="22">
+      <c r="P32" s="22">
         <v>146.89988610423384</v>
       </c>
-      <c r="P32" s="20">
+      <c r="Q32" s="20">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R32" s="8">
+        <v>41769.999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43344</v>
       </c>
@@ -10481,46 +10673,52 @@
         <v>12395416.550000001</v>
       </c>
       <c r="D33" s="9">
+        <v>6417006.7799999975</v>
+      </c>
+      <c r="E33" s="9">
         <v>36118885.325420029</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="10">
         <v>306.27</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="11">
         <v>71496724</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="11">
         <v>29162526</v>
       </c>
-      <c r="H33" s="12">
+      <c r="I33" s="12">
         <v>5031416</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>8040342</v>
       </c>
-      <c r="J33" s="13">
+      <c r="K33" s="13">
         <v>11.28422082</v>
       </c>
-      <c r="K33" s="13">
+      <c r="L33" s="13">
         <v>9.8378270489999995</v>
       </c>
-      <c r="L33" s="13">
+      <c r="M33" s="13">
         <v>13.30892388</v>
       </c>
-      <c r="M33" s="9">
+      <c r="N33" s="9">
         <v>477063999.99999994</v>
       </c>
-      <c r="N33" s="14">
+      <c r="O33" s="14">
         <v>55894</v>
       </c>
-      <c r="O33" s="22">
+      <c r="P33" s="22">
         <v>147.33010685379099</v>
       </c>
-      <c r="P33" s="20">
+      <c r="Q33" s="20">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R33" s="8">
+        <v>181815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43374</v>
       </c>
@@ -10531,46 +10729,52 @@
         <v>11542952.77</v>
       </c>
       <c r="D34" s="9">
+        <v>7493860.0399999991</v>
+      </c>
+      <c r="E34" s="9">
         <v>37872001.603278741</v>
       </c>
-      <c r="E34" s="10">
+      <c r="F34" s="10">
         <v>306.5</v>
       </c>
-      <c r="F34" s="11">
+      <c r="G34" s="11">
         <v>73084212</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H34" s="11">
         <v>27727169</v>
       </c>
-      <c r="H34" s="12">
+      <c r="I34" s="12">
         <v>5358319</v>
       </c>
-      <c r="I34" s="12">
+      <c r="J34" s="12">
         <v>9460794</v>
       </c>
-      <c r="J34" s="13">
+      <c r="K34" s="13">
         <v>11.2593067</v>
       </c>
-      <c r="K34" s="13">
+      <c r="L34" s="13">
         <v>9.8824935020000009</v>
       </c>
-      <c r="L34" s="13">
+      <c r="M34" s="13">
         <v>13.27745079</v>
       </c>
-      <c r="M34" s="9">
+      <c r="N34" s="9">
         <v>422126000.00000006</v>
       </c>
-      <c r="N34" s="14">
+      <c r="O34" s="14">
         <v>56597</v>
       </c>
-      <c r="O34" s="22">
+      <c r="P34" s="22">
         <v>147.22502361728235</v>
       </c>
-      <c r="P34" s="20">
+      <c r="Q34" s="20">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R34" s="8">
+        <v>154642.00000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43405</v>
       </c>
@@ -10581,46 +10785,52 @@
         <v>16217394.98</v>
       </c>
       <c r="D35" s="9">
+        <v>8209498.9599999972</v>
+      </c>
+      <c r="E35" s="9">
         <v>37673836.982000582</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="10">
         <v>306.70999999999998</v>
       </c>
-      <c r="F35" s="11">
+      <c r="G35" s="11">
         <v>73371402</v>
       </c>
-      <c r="G35" s="11">
+      <c r="H35" s="11">
         <v>29405429</v>
       </c>
-      <c r="H35" s="12">
+      <c r="I35" s="12">
         <v>5766482</v>
       </c>
-      <c r="I35" s="12">
+      <c r="J35" s="12">
         <v>10904858</v>
       </c>
-      <c r="J35" s="13">
+      <c r="K35" s="13">
         <v>11.28068743</v>
       </c>
-      <c r="K35" s="13">
+      <c r="L35" s="13">
         <v>9.7865404520000006</v>
       </c>
-      <c r="L35" s="13">
+      <c r="M35" s="13">
         <v>13.301325350000001</v>
       </c>
-      <c r="M35" s="9">
+      <c r="N35" s="9">
         <v>601897862.71434999</v>
       </c>
-      <c r="N35" s="14">
+      <c r="O35" s="14">
         <v>57088</v>
       </c>
-      <c r="O35" s="22">
+      <c r="P35" s="22">
         <v>147.45856981850983</v>
       </c>
-      <c r="P35" s="20">
+      <c r="Q35" s="20">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R35" s="8">
+        <v>266778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43435</v>
       </c>
@@ -10631,46 +10841,52 @@
         <v>16648872.579999998</v>
       </c>
       <c r="D36" s="9">
+        <v>7870573.4600000009</v>
+      </c>
+      <c r="E36" s="9">
         <v>38198675.623810261</v>
       </c>
-      <c r="E36" s="10">
+      <c r="F36" s="10">
         <v>306.92</v>
       </c>
-      <c r="F36" s="11">
+      <c r="G36" s="11">
         <v>79004508</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H36" s="11">
         <v>31926618</v>
       </c>
-      <c r="H36" s="12">
+      <c r="I36" s="12">
         <v>6257553</v>
       </c>
-      <c r="I36" s="12">
+      <c r="J36" s="12">
         <v>13448304</v>
       </c>
-      <c r="J36" s="13">
+      <c r="K36" s="13">
         <v>11.441793240000001</v>
       </c>
-      <c r="K36" s="13">
+      <c r="L36" s="13">
         <v>9.7706245089999992</v>
       </c>
-      <c r="L36" s="13">
+      <c r="M36" s="13">
         <v>13.558702540000001</v>
       </c>
-      <c r="M36" s="9">
+      <c r="N36" s="9">
         <v>441284000</v>
       </c>
-      <c r="N36" s="14">
+      <c r="O36" s="14">
         <v>57474</v>
       </c>
-      <c r="O36" s="22">
+      <c r="P36" s="22">
         <v>145.77674847651625</v>
       </c>
-      <c r="P36" s="20">
+      <c r="Q36" s="20">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R36" s="8">
+        <v>123733</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43466</v>
       </c>
@@ -10681,46 +10897,52 @@
         <v>17280569.189999998</v>
       </c>
       <c r="D37" s="9">
+        <v>8664426.9600000009</v>
+      </c>
+      <c r="E37" s="9">
         <v>39394045.145978518</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="10">
         <v>306.85000000000002</v>
       </c>
-      <c r="F37" s="11">
+      <c r="G37" s="11">
         <v>68524175</v>
       </c>
-      <c r="G37" s="11">
+      <c r="H37" s="11">
         <v>28162746</v>
       </c>
-      <c r="H37" s="12">
+      <c r="I37" s="12">
         <v>6607162</v>
       </c>
-      <c r="I37" s="12">
+      <c r="J37" s="12">
         <v>12402234</v>
       </c>
-      <c r="J37" s="13">
+      <c r="K37" s="13">
         <v>11.374083329999999</v>
       </c>
-      <c r="K37" s="13">
+      <c r="L37" s="13">
         <v>9.9099506270000006</v>
       </c>
-      <c r="L37" s="13">
+      <c r="M37" s="13">
         <v>13.5052366</v>
       </c>
-      <c r="M37" s="9">
+      <c r="N37" s="9">
         <v>417319000</v>
       </c>
-      <c r="N37" s="14">
+      <c r="O37" s="14">
         <v>58551</v>
       </c>
-      <c r="O37" s="22">
+      <c r="P37" s="22">
         <v>145.70052761296373</v>
       </c>
-      <c r="P37" s="20">
+      <c r="Q37" s="20">
         <v>61.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R37" s="8">
+        <v>132343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43497</v>
       </c>
@@ -10731,46 +10953,52 @@
         <v>16987768.740000002</v>
       </c>
       <c r="D38" s="9">
+        <v>6877551.4700000025</v>
+      </c>
+      <c r="E38" s="9">
         <v>40429227.659550875</v>
       </c>
-      <c r="E38" s="10">
+      <c r="F38" s="10">
         <v>306.77</v>
       </c>
-      <c r="F38" s="11">
+      <c r="G38" s="11">
         <v>60803325</v>
       </c>
-      <c r="G38" s="11">
+      <c r="H38" s="11">
         <v>25778644</v>
       </c>
-      <c r="H38" s="12">
+      <c r="I38" s="12">
         <v>6347246</v>
       </c>
-      <c r="I38" s="12">
+      <c r="J38" s="12">
         <v>12812336</v>
       </c>
-      <c r="J38" s="13">
+      <c r="K38" s="13">
         <v>11.30585291</v>
       </c>
-      <c r="K38" s="13">
+      <c r="L38" s="13">
         <v>9.7995798230000002</v>
       </c>
-      <c r="L38" s="13">
+      <c r="M38" s="13">
         <v>13.473196059999999</v>
       </c>
-      <c r="M38" s="9">
+      <c r="N38" s="9">
         <v>452743000</v>
       </c>
-      <c r="N38" s="14">
+      <c r="O38" s="14">
         <v>59428</v>
       </c>
-      <c r="O38" s="22">
+      <c r="P38" s="22">
         <v>145.29176235503638</v>
       </c>
-      <c r="P38" s="20">
+      <c r="Q38" s="20">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R38" s="8">
+        <v>200022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43525</v>
       </c>
@@ -10781,46 +11009,52 @@
         <v>17422362.009999998</v>
       </c>
       <c r="D39" s="9">
+        <v>-69214.339999999851</v>
+      </c>
+      <c r="E39" s="9">
         <v>41143038.332434297</v>
       </c>
-      <c r="E39" s="10">
+      <c r="F39" s="10">
         <v>306.92</v>
       </c>
-      <c r="F39" s="11">
+      <c r="G39" s="11">
         <v>73632232</v>
       </c>
-      <c r="G39" s="11">
+      <c r="H39" s="11">
         <v>29820754</v>
       </c>
-      <c r="H39" s="12">
+      <c r="I39" s="12">
         <v>7427703</v>
       </c>
-      <c r="I39" s="12">
+      <c r="J39" s="12">
         <v>16258436</v>
       </c>
-      <c r="J39" s="13">
+      <c r="K39" s="13">
         <v>11.251149570000001</v>
       </c>
-      <c r="K39" s="13">
+      <c r="L39" s="13">
         <v>9.4610978719999999</v>
       </c>
-      <c r="L39" s="13">
+      <c r="M39" s="13">
         <v>13.4510474</v>
       </c>
-      <c r="M39" s="9">
+      <c r="N39" s="9">
         <v>485724034.35964012</v>
       </c>
-      <c r="N39" s="14">
+      <c r="O39" s="14">
         <v>60442</v>
       </c>
-      <c r="O39" s="22">
+      <c r="P39" s="22">
         <v>145.32202304616368</v>
       </c>
-      <c r="P39" s="20">
+      <c r="Q39" s="20">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R39" s="8">
+        <v>122861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43556</v>
       </c>
@@ -10831,46 +11065,52 @@
         <v>16172791.689999999</v>
       </c>
       <c r="D40" s="9">
+        <v>2096316.5800000019</v>
+      </c>
+      <c r="E40" s="9">
         <v>41150592.394758865</v>
       </c>
-      <c r="E40" s="10">
+      <c r="F40" s="10">
         <v>306.95999999999998</v>
       </c>
-      <c r="F40" s="11">
+      <c r="G40" s="11">
         <v>75043037</v>
       </c>
-      <c r="G40" s="11">
+      <c r="H40" s="11">
         <v>33368778</v>
       </c>
-      <c r="H40" s="12">
+      <c r="I40" s="12">
         <v>11174073</v>
       </c>
-      <c r="I40" s="12">
+      <c r="J40" s="12">
         <v>19148956</v>
       </c>
-      <c r="J40" s="13">
+      <c r="K40" s="13">
         <v>11.37206804</v>
       </c>
-      <c r="K40" s="13">
+      <c r="L40" s="13">
         <v>9.2804443340000002</v>
       </c>
-      <c r="L40" s="13">
+      <c r="M40" s="13">
         <v>13.70148468</v>
       </c>
-      <c r="M40" s="9">
+      <c r="N40" s="9">
         <v>425693000</v>
       </c>
-      <c r="N40" s="14">
+      <c r="O40" s="14">
         <v>61514</v>
       </c>
-      <c r="O40" s="22">
+      <c r="P40" s="22">
         <v>145.92317745262119</v>
       </c>
-      <c r="P40" s="20">
+      <c r="Q40" s="20">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R40" s="8">
+        <v>278292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>43586</v>
       </c>
@@ -10881,46 +11121,52 @@
         <v>16508706.830000002</v>
       </c>
       <c r="D41" s="9">
+        <v>6161116.5899999961</v>
+      </c>
+      <c r="E41" s="9">
         <v>39433391.105358325</v>
       </c>
-      <c r="E41" s="10">
+      <c r="F41" s="10">
         <v>306.95</v>
       </c>
-      <c r="F41" s="11">
+      <c r="G41" s="11">
         <v>75433302</v>
       </c>
-      <c r="G41" s="11">
+      <c r="H41" s="11">
         <v>35466679</v>
       </c>
-      <c r="H41" s="12">
+      <c r="I41" s="12">
         <v>10563897</v>
       </c>
-      <c r="I41" s="12">
+      <c r="J41" s="12">
         <v>21214603</v>
       </c>
-      <c r="J41" s="13">
+      <c r="K41" s="13">
         <v>11.39640477</v>
       </c>
-      <c r="K41" s="13">
+      <c r="L41" s="13">
         <v>9.0328228839999998</v>
       </c>
-      <c r="L41" s="13">
+      <c r="M41" s="13">
         <v>13.79414532</v>
       </c>
-      <c r="M41" s="9">
+      <c r="N41" s="9">
         <v>380823999.99999994</v>
       </c>
-      <c r="N41" s="14">
+      <c r="O41" s="14">
         <v>62283</v>
       </c>
-      <c r="O41" s="22">
+      <c r="P41" s="22">
         <v>145.03319174404504</v>
       </c>
-      <c r="P41" s="20">
+      <c r="Q41" s="20">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R41" s="8">
+        <v>218600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43617</v>
       </c>
@@ -10931,46 +11177,52 @@
         <v>16363404.119999999</v>
       </c>
       <c r="D42" s="9">
+        <v>6926995.6399999969</v>
+      </c>
+      <c r="E42" s="9">
         <v>40421369.750508934</v>
       </c>
-      <c r="E42" s="10">
+      <c r="F42" s="10">
         <v>306.95</v>
       </c>
-      <c r="F42" s="11">
+      <c r="G42" s="11">
         <v>71183606</v>
       </c>
-      <c r="G42" s="11">
+      <c r="H42" s="11">
         <v>35097558</v>
       </c>
-      <c r="H42" s="12">
+      <c r="I42" s="12">
         <v>5856819</v>
       </c>
-      <c r="I42" s="12">
+      <c r="J42" s="12">
         <v>22937368</v>
       </c>
-      <c r="J42" s="13">
+      <c r="K42" s="13">
         <v>11.217315899999999</v>
       </c>
-      <c r="K42" s="13">
+      <c r="L42" s="13">
         <v>8.8412156670000002</v>
       </c>
-      <c r="L42" s="13">
+      <c r="M42" s="13">
         <v>13.55849053</v>
       </c>
-      <c r="M42" s="9">
+      <c r="N42" s="9">
         <v>318692000</v>
       </c>
-      <c r="N42" s="14">
+      <c r="O42" s="14">
         <v>63174</v>
       </c>
-      <c r="O42" s="22">
+      <c r="P42" s="22">
         <v>145.359207562884</v>
       </c>
-      <c r="P42" s="20">
+      <c r="Q42" s="20">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R42" s="8">
+        <v>171367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>43647</v>
       </c>
@@ -10981,46 +11233,52 @@
         <v>17184975.659999996</v>
       </c>
       <c r="D43" s="9">
+        <v>6470799.2800000049</v>
+      </c>
+      <c r="E43" s="9">
         <v>39788542.962206602</v>
       </c>
-      <c r="E43" s="10">
+      <c r="F43" s="10">
         <v>306.94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="G43" s="11">
         <v>71383197</v>
       </c>
-      <c r="G43" s="11">
+      <c r="H43" s="11">
         <v>39224406</v>
       </c>
-      <c r="H43" s="12">
+      <c r="I43" s="12">
         <v>7331646</v>
       </c>
-      <c r="I43" s="12">
+      <c r="J43" s="12">
         <v>28315044</v>
       </c>
-      <c r="J43" s="13">
+      <c r="K43" s="13">
         <v>11.08445702</v>
       </c>
-      <c r="K43" s="13">
+      <c r="L43" s="13">
         <v>8.7981621800000003</v>
       </c>
-      <c r="L43" s="13">
+      <c r="M43" s="13">
         <v>13.391522119999999</v>
       </c>
-      <c r="M43" s="9">
+      <c r="N43" s="9">
         <v>341057000</v>
       </c>
-      <c r="N43" s="14">
+      <c r="O43" s="14">
         <v>63704</v>
       </c>
-      <c r="O43" s="22">
+      <c r="P43" s="22">
         <v>145.0265792703801</v>
       </c>
-      <c r="P43" s="20">
+      <c r="Q43" s="20">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R43" s="8">
+        <v>101259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43678</v>
       </c>
@@ -11031,46 +11289,52 @@
         <v>17662394.920000002</v>
       </c>
       <c r="D44" s="9">
+        <v>6120857.320000004</v>
+      </c>
+      <c r="E44" s="9">
         <v>40056017.002497584</v>
       </c>
-      <c r="E44" s="10">
+      <c r="F44" s="10">
         <v>306.93</v>
       </c>
-      <c r="F44" s="11">
+      <c r="G44" s="11">
         <v>73988365</v>
       </c>
-      <c r="G44" s="11">
+      <c r="H44" s="11">
         <v>41379830</v>
       </c>
-      <c r="H44" s="12">
+      <c r="I44" s="12">
         <v>9747397</v>
       </c>
-      <c r="I44" s="12">
+      <c r="J44" s="12">
         <v>37291635</v>
       </c>
-      <c r="J44" s="13">
+      <c r="K44" s="13">
         <v>11.015909410000001</v>
       </c>
-      <c r="K44" s="13">
+      <c r="L44" s="13">
         <v>8.6781969149999991</v>
       </c>
-      <c r="L44" s="13">
+      <c r="M44" s="13">
         <v>13.17048204</v>
       </c>
-      <c r="M44" s="9">
+      <c r="N44" s="9">
         <v>450219000</v>
       </c>
-      <c r="N44" s="14">
+      <c r="O44" s="14">
         <v>64339</v>
       </c>
-      <c r="O44" s="22">
+      <c r="P44" s="22">
         <v>145.48270270270268</v>
       </c>
-      <c r="P44" s="20">
+      <c r="Q44" s="20">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R44" s="8">
+        <v>26416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43709</v>
       </c>
@@ -11081,46 +11345,52 @@
         <v>7986409.2599999998</v>
       </c>
       <c r="D45" s="9">
+        <v>11721113.319999997</v>
+      </c>
+      <c r="E45" s="9">
         <v>38920974.919047855</v>
       </c>
-      <c r="E45" s="10">
+      <c r="F45" s="10">
         <v>306.92</v>
       </c>
-      <c r="F45" s="11">
+      <c r="G45" s="11">
         <v>67454875</v>
       </c>
-      <c r="G45" s="11">
+      <c r="H45" s="11">
         <v>40740772</v>
       </c>
-      <c r="H45" s="12">
+      <c r="I45" s="12">
         <v>9613824</v>
       </c>
-      <c r="I45" s="12">
+      <c r="J45" s="12">
         <v>47460653</v>
       </c>
-      <c r="J45" s="13">
+      <c r="K45" s="13">
         <v>11.24375478</v>
       </c>
-      <c r="K45" s="13">
+      <c r="L45" s="13">
         <v>8.9449632430000001</v>
       </c>
-      <c r="L45" s="13">
+      <c r="M45" s="13">
         <v>13.50688742</v>
       </c>
-      <c r="M45" s="9">
+      <c r="N45" s="9">
         <v>430293000</v>
       </c>
-      <c r="N45" s="14">
+      <c r="O45" s="14">
         <v>64728</v>
       </c>
-      <c r="O45" s="22">
+      <c r="P45" s="22">
         <v>145.53084565731768</v>
       </c>
-      <c r="P45" s="20">
+      <c r="Q45" s="20">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R45" s="8">
+        <v>177753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43739</v>
       </c>
@@ -11131,46 +11401,52 @@
         <v>13000995.790000001</v>
       </c>
       <c r="D46" s="9">
+        <v>11072533.019999996</v>
+      </c>
+      <c r="E46" s="9">
         <v>39252495.050978318</v>
       </c>
-      <c r="E46" s="10">
+      <c r="F46" s="10">
         <v>306.95999999999998</v>
       </c>
-      <c r="F46" s="11">
+      <c r="G46" s="11">
         <v>66766722</v>
       </c>
-      <c r="G46" s="11">
+      <c r="H46" s="11">
         <v>41602024</v>
       </c>
-      <c r="H46" s="12">
+      <c r="I46" s="12">
         <v>9135016</v>
       </c>
-      <c r="I46" s="12">
+      <c r="J46" s="12">
         <v>42043290</v>
       </c>
-      <c r="J46" s="13">
+      <c r="K46" s="13">
         <v>11.6069814</v>
       </c>
-      <c r="K46" s="13">
+      <c r="L46" s="13">
         <v>8.8764254769999997</v>
       </c>
-      <c r="L46" s="13">
+      <c r="M46" s="13">
         <v>14.087872150000001</v>
       </c>
-      <c r="M46" s="9">
+      <c r="N46" s="9">
         <v>509529000</v>
       </c>
-      <c r="N46" s="14">
+      <c r="O46" s="14">
         <v>65102</v>
       </c>
-      <c r="O46" s="22">
+      <c r="P46" s="22">
         <v>145.47544812485557</v>
       </c>
-      <c r="P46" s="20">
+      <c r="Q46" s="20">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R46" s="8">
+        <v>279846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43770</v>
       </c>
@@ -11181,46 +11457,52 @@
         <v>19980004.600000001</v>
       </c>
       <c r="D47" s="9">
+        <v>4984889.1700000018</v>
+      </c>
+      <c r="E47" s="9">
         <v>40515779.956078231</v>
       </c>
-      <c r="E47" s="10">
+      <c r="F47" s="10">
         <v>306.95</v>
       </c>
-      <c r="F47" s="11">
+      <c r="G47" s="11">
         <v>65980978</v>
       </c>
-      <c r="G47" s="11">
+      <c r="H47" s="11">
         <v>41833763</v>
       </c>
-      <c r="H47" s="12">
+      <c r="I47" s="12">
         <v>9114595</v>
       </c>
-      <c r="I47" s="12">
+      <c r="J47" s="12">
         <v>48775160</v>
       </c>
-      <c r="J47" s="13">
+      <c r="K47" s="13">
         <v>11.853517760000001</v>
       </c>
-      <c r="K47" s="13">
+      <c r="L47" s="13">
         <v>8.9933831879999993</v>
       </c>
-      <c r="L47" s="13">
+      <c r="M47" s="13">
         <v>14.48199159</v>
       </c>
-      <c r="M47" s="9">
+      <c r="N47" s="9">
         <v>451323999.99999994</v>
       </c>
-      <c r="N47" s="14">
+      <c r="O47" s="14">
         <v>65393</v>
       </c>
-      <c r="O47" s="22">
+      <c r="P47" s="22">
         <v>145.94422158845526</v>
       </c>
-      <c r="P47" s="20">
+      <c r="Q47" s="20">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R47" s="8">
+        <v>144798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>43800</v>
       </c>
@@ -11231,46 +11513,52 @@
         <v>21014608.43</v>
       </c>
       <c r="D48" s="9">
+        <v>4259718.8299999982</v>
+      </c>
+      <c r="E48" s="9">
         <v>40368961.050493352</v>
       </c>
-      <c r="E48" s="10">
+      <c r="F48" s="10">
         <v>306.95</v>
       </c>
-      <c r="F48" s="11">
+      <c r="G48" s="11">
         <v>69626108</v>
       </c>
-      <c r="G48" s="11">
+      <c r="H48" s="11">
         <v>46138228</v>
       </c>
-      <c r="H48" s="12">
+      <c r="I48" s="12">
         <v>10577629</v>
       </c>
-      <c r="I48" s="12">
+      <c r="J48" s="12">
         <v>68605493</v>
       </c>
-      <c r="J48" s="13">
+      <c r="K48" s="13">
         <v>11.981569289999999</v>
       </c>
-      <c r="K48" s="13">
+      <c r="L48" s="13">
         <v>9.3306841200000008</v>
       </c>
-      <c r="L48" s="13">
+      <c r="M48" s="13">
         <v>14.66676058</v>
       </c>
-      <c r="M48" s="9">
+      <c r="N48" s="9">
         <v>430770999.99999994</v>
       </c>
-      <c r="N48" s="14">
+      <c r="O48" s="14">
         <v>65814</v>
       </c>
-      <c r="O48" s="22">
+      <c r="P48" s="22">
         <v>145.34859868900892</v>
       </c>
-      <c r="P48" s="20">
+      <c r="Q48" s="20">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R48" s="8">
+        <v>435439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>43831</v>
       </c>
@@ -11281,46 +11569,52 @@
         <v>21462960.399999999</v>
       </c>
       <c r="D49" s="9">
+        <v>4239291.4799999967</v>
+      </c>
+      <c r="E49" s="9">
         <v>40555662.78056366</v>
       </c>
-      <c r="E49" s="10">
+      <c r="F49" s="10">
         <v>306.95999999999998</v>
       </c>
-      <c r="F49" s="11">
+      <c r="G49" s="11">
         <v>168525739</v>
       </c>
-      <c r="G49" s="11">
+      <c r="H49" s="11">
         <v>41305041</v>
       </c>
-      <c r="H49" s="12">
+      <c r="I49" s="12">
         <v>317109647</v>
       </c>
-      <c r="I49" s="12">
+      <c r="J49" s="12">
         <v>63405924</v>
       </c>
-      <c r="J49" s="13">
+      <c r="K49" s="13">
         <v>12.13230577</v>
       </c>
-      <c r="K49" s="13">
+      <c r="L49" s="13">
         <v>9.3487922710000007</v>
       </c>
-      <c r="L49" s="13">
+      <c r="M49" s="13">
         <v>14.84934904</v>
       </c>
-      <c r="M49" s="9">
+      <c r="N49" s="9">
         <v>527184000</v>
       </c>
-      <c r="N49" s="14">
+      <c r="O49" s="14">
         <v>66568</v>
       </c>
-      <c r="O49" s="22">
+      <c r="P49" s="22">
         <v>145.36891891891895</v>
       </c>
-      <c r="P49" s="20">
+      <c r="Q49" s="20">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R49" s="8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>43862</v>
       </c>
@@ -11331,46 +11625,52 @@
         <v>19817920</v>
       </c>
       <c r="D50" s="9">
+        <v>6033829.6699999981</v>
+      </c>
+      <c r="E50" s="9">
         <v>41021667.470554598</v>
       </c>
-      <c r="E50" s="10">
+      <c r="F50" s="10">
         <v>306.95999999999998</v>
       </c>
-      <c r="F50" s="11">
+      <c r="G50" s="11">
         <v>167770512</v>
       </c>
-      <c r="G50" s="11">
+      <c r="H50" s="11">
         <v>46071669</v>
       </c>
-      <c r="H50" s="12">
+      <c r="I50" s="12">
         <v>335699754</v>
       </c>
-      <c r="I50" s="12">
+      <c r="J50" s="12">
         <v>46214691</v>
       </c>
-      <c r="J50" s="13">
+      <c r="K50" s="13">
         <v>12.19853348</v>
       </c>
-      <c r="K50" s="13">
+      <c r="L50" s="13">
         <v>9.4340347100000006</v>
       </c>
-      <c r="L50" s="13">
+      <c r="M50" s="13">
         <v>14.904420099999999</v>
       </c>
-      <c r="M50" s="9">
+      <c r="N50" s="9">
         <v>452447000</v>
       </c>
-      <c r="N50" s="14">
+      <c r="O50" s="14">
         <v>67277</v>
       </c>
-      <c r="O50" s="22">
+      <c r="P50" s="22">
         <v>145.41385866960803</v>
       </c>
-      <c r="P50" s="20">
+      <c r="Q50" s="20">
         <v>59.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R50" s="8">
+        <v>52587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43891</v>
       </c>
@@ -11381,46 +11681,52 @@
         <v>20203851.23</v>
       </c>
       <c r="D51" s="9">
+        <v>390465.53999999911</v>
+      </c>
+      <c r="E51" s="9">
         <v>44123432.143893406</v>
       </c>
-      <c r="E51" s="10">
+      <c r="F51" s="10">
         <v>326.63</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G51" s="11">
         <v>190234195</v>
       </c>
-      <c r="G51" s="11">
+      <c r="H51" s="11">
         <v>52249019</v>
       </c>
-      <c r="H51" s="12">
+      <c r="I51" s="12">
         <v>478339263</v>
       </c>
-      <c r="I51" s="12">
+      <c r="J51" s="12">
         <v>63730361</v>
       </c>
-      <c r="J51" s="13">
+      <c r="K51" s="13">
         <v>12.257324799999999</v>
       </c>
-      <c r="K51" s="13">
+      <c r="L51" s="13">
         <v>9.731876862</v>
       </c>
-      <c r="L51" s="13">
+      <c r="M51" s="13">
         <v>14.97665003</v>
       </c>
-      <c r="M51" s="9">
+      <c r="N51" s="9">
         <v>405327000</v>
       </c>
-      <c r="N51" s="14">
+      <c r="O51" s="14">
         <v>68159</v>
       </c>
-      <c r="O51" s="22">
+      <c r="P51" s="22">
         <v>145.39993443922813</v>
       </c>
-      <c r="P51" s="20">
+      <c r="Q51" s="20">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R51" s="8">
+        <v>86780</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>43922</v>
       </c>
@@ -11431,46 +11737,52 @@
         <v>20706916.150000002</v>
       </c>
       <c r="D52" s="9">
+        <v>-1402175.5000000037</v>
+      </c>
+      <c r="E52" s="9">
         <v>44056763.469983637</v>
       </c>
-      <c r="E52" s="10">
+      <c r="F52" s="10">
         <v>361</v>
       </c>
-      <c r="F52" s="11">
+      <c r="G52" s="11">
         <v>115518329</v>
       </c>
-      <c r="G52" s="11">
+      <c r="H52" s="11">
         <v>40859206</v>
       </c>
-      <c r="H52" s="12">
+      <c r="I52" s="12">
         <v>376054999</v>
       </c>
-      <c r="I52" s="12">
+      <c r="J52" s="12">
         <v>48149409</v>
       </c>
-      <c r="J52" s="13">
+      <c r="K52" s="13">
         <v>12.341464930000001</v>
       </c>
-      <c r="K52" s="13">
+      <c r="L52" s="13">
         <v>9.9791390100000008</v>
       </c>
-      <c r="L52" s="13">
+      <c r="M52" s="13">
         <v>15.02643771</v>
       </c>
-      <c r="M52" s="9">
+      <c r="N52" s="9">
         <v>454340000</v>
       </c>
-      <c r="N52" s="14">
+      <c r="O52" s="14">
         <v>69948</v>
       </c>
-      <c r="O52" s="22">
+      <c r="P52" s="22">
         <v>130.84039893157541</v>
       </c>
-      <c r="P52" s="20">
+      <c r="Q52" s="20">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R52" s="8">
+        <v>112112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>43952</v>
       </c>
@@ -11481,46 +11793,52 @@
         <v>20771603.599999994</v>
       </c>
       <c r="D53" s="9">
+        <v>811187.84000000358</v>
+      </c>
+      <c r="E53" s="9">
         <v>46088141.556451328</v>
       </c>
-      <c r="E53" s="10">
+      <c r="F53" s="10">
         <v>361</v>
       </c>
-      <c r="F53" s="11">
+      <c r="G53" s="11">
         <v>135857274</v>
       </c>
-      <c r="G53" s="11">
+      <c r="H53" s="11">
         <v>48371074</v>
       </c>
-      <c r="H53" s="12">
+      <c r="I53" s="12">
         <v>438264450</v>
       </c>
-      <c r="I53" s="12">
+      <c r="J53" s="12">
         <v>49302496</v>
       </c>
-      <c r="J53" s="13">
+      <c r="K53" s="13">
         <v>12.40424879</v>
       </c>
-      <c r="K53" s="13">
+      <c r="L53" s="13">
         <v>10.1197199</v>
       </c>
-      <c r="L53" s="13">
+      <c r="M53" s="13">
         <v>15.03557372</v>
       </c>
-      <c r="M53" s="9">
+      <c r="N53" s="9">
         <v>284041999.99999994</v>
       </c>
-      <c r="N53" s="14">
+      <c r="O53" s="14">
         <v>71083</v>
       </c>
-      <c r="O53" s="22">
+      <c r="P53" s="22">
         <v>129.6733687889953</v>
       </c>
-      <c r="P53" s="23">
+      <c r="Q53" s="23">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R53" s="8">
+        <v>127036.99999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>43983</v>
       </c>
@@ -11531,46 +11849,52 @@
         <v>20910173.539999999</v>
       </c>
       <c r="D54" s="9">
+        <v>146479.24000000209</v>
+      </c>
+      <c r="E54" s="9">
         <v>46967639.26267945</v>
       </c>
-      <c r="E54" s="10">
+      <c r="F54" s="10">
         <v>361</v>
       </c>
-      <c r="F54" s="11">
+      <c r="G54" s="11">
         <v>151026271</v>
       </c>
-      <c r="G54" s="11">
+      <c r="H54" s="11">
         <v>49421986</v>
       </c>
-      <c r="H54" s="12">
+      <c r="I54" s="12">
         <v>507471371</v>
       </c>
-      <c r="I54" s="12">
+      <c r="J54" s="12">
         <v>59037651</v>
       </c>
-      <c r="J54" s="13">
+      <c r="K54" s="13">
         <v>12.55871969</v>
       </c>
-      <c r="K54" s="13">
+      <c r="L54" s="13">
         <v>10.127669109999999</v>
       </c>
-      <c r="L54" s="13">
+      <c r="M54" s="13">
         <v>15.175363969999999</v>
       </c>
-      <c r="M54" s="9">
+      <c r="N54" s="9">
         <v>282394000</v>
       </c>
-      <c r="N54" s="14">
+      <c r="O54" s="14">
         <v>72019</v>
       </c>
-      <c r="O54" s="22">
+      <c r="P54" s="22">
         <v>128.88349915594497</v>
       </c>
-      <c r="P54" s="20">
+      <c r="Q54" s="20">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R54" s="8">
+        <v>65907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>44013</v>
       </c>
@@ -11581,46 +11905,52 @@
         <v>26120023.549999997</v>
       </c>
       <c r="D55" s="9">
+        <v>-567952</v>
+      </c>
+      <c r="E55" s="9">
         <v>47762329.721706189</v>
       </c>
-      <c r="E55" s="10">
+      <c r="F55" s="10">
         <v>377.19</v>
       </c>
-      <c r="F55" s="11">
+      <c r="G55" s="11">
         <v>170348417</v>
       </c>
-      <c r="G55" s="11">
+      <c r="H55" s="11">
         <v>53904356</v>
       </c>
-      <c r="H55" s="12">
+      <c r="I55" s="12">
         <v>572806624</v>
       </c>
-      <c r="I55" s="12">
+      <c r="J55" s="12">
         <v>65218770</v>
       </c>
-      <c r="J55" s="13">
+      <c r="K55" s="13">
         <v>12.82071751</v>
       </c>
-      <c r="K55" s="13">
+      <c r="L55" s="13">
         <v>10.101870720000001</v>
       </c>
-      <c r="L55" s="13">
+      <c r="M55" s="13">
         <v>15.48176778</v>
       </c>
-      <c r="M55" s="9">
+      <c r="N55" s="9">
         <v>242040000</v>
       </c>
-      <c r="N55" s="14">
+      <c r="O55" s="14">
         <v>72714</v>
       </c>
-      <c r="O55" s="22">
+      <c r="P55" s="22">
         <v>143.62608791472977</v>
       </c>
-      <c r="P55" s="20">
+      <c r="Q55" s="20">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R55" s="8">
+        <v>119841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>44044</v>
       </c>
@@ -11631,46 +11961,52 @@
         <v>26597974.129999999</v>
       </c>
       <c r="D56" s="9">
+        <v>-1936981.5</v>
+      </c>
+      <c r="E56" s="9">
         <v>45382375.246954165</v>
       </c>
-      <c r="E56" s="10">
+      <c r="F56" s="10">
         <v>381</v>
       </c>
-      <c r="F56" s="11">
+      <c r="G56" s="11">
         <v>191354683</v>
       </c>
-      <c r="G56" s="11">
+      <c r="H56" s="11">
         <v>50663508</v>
       </c>
-      <c r="H56" s="12">
+      <c r="I56" s="12">
         <v>613397465</v>
       </c>
-      <c r="I56" s="12">
+      <c r="J56" s="12">
         <v>64964279</v>
       </c>
-      <c r="J56" s="13">
+      <c r="K56" s="13">
         <v>13.21951352</v>
       </c>
-      <c r="K56" s="13">
+      <c r="L56" s="13">
         <v>10.52069917</v>
       </c>
-      <c r="L56" s="13">
+      <c r="M56" s="13">
         <v>15.996312789999999</v>
       </c>
-      <c r="M56" s="9">
+      <c r="N56" s="9">
         <v>353693000</v>
       </c>
-      <c r="N56" s="14">
+      <c r="O56" s="14">
         <v>73138</v>
       </c>
-      <c r="O56" s="22">
+      <c r="P56" s="22">
         <v>148.7752156581696</v>
       </c>
-      <c r="P56" s="20">
+      <c r="Q56" s="20">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R56" s="8">
+        <v>197194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>44075</v>
       </c>
@@ -11681,46 +12017,52 @@
         <v>15111216.58</v>
       </c>
       <c r="D57" s="9">
+        <v>10042360.809999999</v>
+      </c>
+      <c r="E57" s="9">
         <v>45410697.872603513</v>
       </c>
-      <c r="E57" s="10">
+      <c r="F57" s="10">
         <v>381</v>
       </c>
-      <c r="F57" s="11">
+      <c r="G57" s="11">
         <v>168325956</v>
       </c>
-      <c r="G57" s="11">
+      <c r="H57" s="11">
         <v>58052877</v>
       </c>
-      <c r="H57" s="12">
+      <c r="I57" s="12">
         <v>613955108</v>
       </c>
-      <c r="I57" s="12">
+      <c r="J57" s="12">
         <v>66912707</v>
       </c>
-      <c r="J57" s="13">
+      <c r="K57" s="13">
         <v>13.706629209999999</v>
       </c>
-      <c r="K57" s="13">
+      <c r="L57" s="13">
         <v>10.581412309999999</v>
       </c>
-      <c r="L57" s="13">
+      <c r="M57" s="13">
         <v>16.660302210000001</v>
       </c>
-      <c r="M57" s="9">
+      <c r="N57" s="9">
         <v>254343000</v>
       </c>
-      <c r="N57" s="14">
+      <c r="O57" s="14">
         <v>73648</v>
       </c>
-      <c r="O57" s="24">
+      <c r="P57" s="24">
         <v>161.05723924184923</v>
       </c>
-      <c r="P57" s="20">
+      <c r="Q57" s="20">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R57" s="8">
+        <v>146074</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44105</v>
       </c>
@@ -11731,46 +12073,52 @@
         <v>13993335.680000002</v>
       </c>
       <c r="D58" s="9">
+        <v>9571503.9699999988</v>
+      </c>
+      <c r="E58" s="9">
         <v>45796778.837360255</v>
       </c>
-      <c r="E58" s="10">
+      <c r="F58" s="10">
         <v>381</v>
       </c>
-      <c r="F58" s="11">
+      <c r="G58" s="11">
         <v>151924854</v>
       </c>
-      <c r="G58" s="11">
+      <c r="H58" s="11">
         <v>68411116</v>
       </c>
-      <c r="H58" s="12">
+      <c r="I58" s="12">
         <v>680837930</v>
       </c>
-      <c r="I58" s="12">
+      <c r="J58" s="12">
         <v>74843927</v>
       </c>
-      <c r="J58" s="13">
+      <c r="K58" s="13">
         <v>14.232742740000001</v>
       </c>
-      <c r="K58" s="13">
+      <c r="L58" s="13">
         <v>11.13726058</v>
       </c>
-      <c r="L58" s="13">
+      <c r="M58" s="13">
         <v>17.378351590000001</v>
       </c>
-      <c r="M58" s="9">
+      <c r="N58" s="9">
         <v>201115000.00000003</v>
       </c>
-      <c r="N58" s="14">
+      <c r="O58" s="14">
         <v>74297</v>
       </c>
-      <c r="O58" s="25">
+      <c r="P58" s="25">
         <v>161.1701547622134</v>
       </c>
-      <c r="P58" s="20">
+      <c r="Q58" s="20">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R58" s="8">
+        <v>152902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44136</v>
       </c>
@@ -11781,46 +12129,52 @@
         <v>25360369.969999999</v>
       </c>
       <c r="D59" s="9">
+        <v>2011150.9699999988</v>
+      </c>
+      <c r="E59" s="9">
         <v>48455556.905538663</v>
       </c>
-      <c r="E59" s="10">
+      <c r="F59" s="10">
         <v>381</v>
       </c>
-      <c r="F59" s="11">
+      <c r="G59" s="11">
         <v>158259049</v>
       </c>
-      <c r="G59" s="11">
+      <c r="H59" s="11">
         <v>68537758</v>
       </c>
-      <c r="H59" s="12">
+      <c r="I59" s="12">
         <v>747664285</v>
       </c>
-      <c r="I59" s="12">
+      <c r="J59" s="12">
         <v>77318921</v>
       </c>
-      <c r="J59" s="13">
+      <c r="K59" s="13">
         <v>14.88726067</v>
       </c>
-      <c r="K59" s="13">
+      <c r="L59" s="13">
         <v>11.049644369999999</v>
       </c>
-      <c r="L59" s="13">
+      <c r="M59" s="13">
         <v>18.298204640000002</v>
       </c>
-      <c r="M59" s="9">
+      <c r="N59" s="9">
         <v>225412000</v>
       </c>
-      <c r="N59" s="14">
+      <c r="O59" s="14">
         <v>74916</v>
       </c>
-      <c r="O59" s="26">
+      <c r="P59" s="26">
         <v>167.27414264346928</v>
       </c>
-      <c r="P59" s="20">
+      <c r="Q59" s="20">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R59" s="8">
+        <v>189565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>44166</v>
       </c>
@@ -11831,46 +12185,52 @@
         <v>22075248.560000002</v>
       </c>
       <c r="D60" s="9">
+        <v>2908608.6000000015</v>
+      </c>
+      <c r="E60" s="9">
         <v>47971510.376302764</v>
       </c>
-      <c r="E60" s="10">
+      <c r="F60" s="10">
         <v>381</v>
       </c>
-      <c r="F60" s="11">
+      <c r="G60" s="11">
         <v>145075140</v>
       </c>
-      <c r="G60" s="11">
+      <c r="H60" s="11">
         <v>77900738</v>
       </c>
-      <c r="H60" s="12">
+      <c r="I60" s="12">
         <v>798947734</v>
       </c>
-      <c r="I60" s="12">
+      <c r="J60" s="12">
         <v>90139553</v>
       </c>
-      <c r="J60" s="13">
+      <c r="K60" s="13">
         <v>15.753386649999999</v>
       </c>
-      <c r="K60" s="13">
+      <c r="L60" s="13">
         <v>11.37440758</v>
       </c>
-      <c r="L60" s="13">
+      <c r="M60" s="13">
         <v>19.56246603</v>
       </c>
-      <c r="M60" s="9">
+      <c r="N60" s="9">
         <v>309257131.33920002</v>
       </c>
-      <c r="N60" s="14">
+      <c r="O60" s="14">
         <v>75508</v>
       </c>
-      <c r="O60" s="26">
+      <c r="P60" s="26">
         <v>165.7</v>
       </c>
-      <c r="P60" s="20">
+      <c r="Q60" s="20">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R60" s="8">
+        <v>364559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>44197</v>
       </c>
@@ -11881,46 +12241,52 @@
         <v>21665790.48</v>
       </c>
       <c r="D61" s="9">
+        <v>2231303.1300000027</v>
+      </c>
+      <c r="E61" s="9">
         <v>47773857.438806489</v>
       </c>
-      <c r="E61" s="10">
+      <c r="F61" s="10">
         <v>381</v>
       </c>
-      <c r="F61" s="11">
+      <c r="G61" s="11">
         <v>96397612</v>
       </c>
-      <c r="G61" s="11">
+      <c r="H61" s="11">
         <v>166546211</v>
       </c>
-      <c r="H61" s="12">
+      <c r="I61" s="12">
         <v>245917631</v>
       </c>
-      <c r="I61" s="12">
+      <c r="J61" s="12">
         <v>51411911</v>
       </c>
-      <c r="J61" s="13">
+      <c r="K61" s="13">
         <v>16.466347280000001</v>
       </c>
-      <c r="K61" s="13">
+      <c r="L61" s="13">
         <v>11.85410334</v>
       </c>
-      <c r="L61" s="13">
+      <c r="M61" s="13">
         <v>20.56661227</v>
       </c>
-      <c r="M61" s="9">
+      <c r="N61" s="9">
         <v>315239659.43760002</v>
       </c>
-      <c r="N61" s="14">
+      <c r="O61" s="14">
         <v>76484</v>
       </c>
-      <c r="O61" s="27">
+      <c r="P61" s="27">
         <v>164.09449162385926</v>
       </c>
-      <c r="P61" s="20">
+      <c r="Q61" s="20">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R61" s="8">
+        <v>717574.00000000012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44228</v>
       </c>
@@ -11931,46 +12297,52 @@
         <v>28068607.059999995</v>
       </c>
       <c r="D62" s="9">
+        <v>2977663.3200000003</v>
+      </c>
+      <c r="E62" s="9">
         <v>50613919.579680316</v>
       </c>
-      <c r="E62" s="10">
+      <c r="F62" s="10">
         <v>381</v>
       </c>
-      <c r="F62" s="11">
+      <c r="G62" s="11">
         <v>98575736</v>
       </c>
-      <c r="G62" s="11">
+      <c r="H62" s="11">
         <v>168162994</v>
       </c>
-      <c r="H62" s="12">
+      <c r="I62" s="12">
         <v>240174681</v>
       </c>
-      <c r="I62" s="12">
+      <c r="J62" s="12">
         <v>52199634</v>
       </c>
-      <c r="J62" s="13">
+      <c r="K62" s="13">
         <v>17.334896310000001</v>
       </c>
-      <c r="K62" s="13">
+      <c r="L62" s="13">
         <v>12.382021679999999</v>
       </c>
-      <c r="L62" s="13">
+      <c r="M62" s="13">
         <v>21.78577202</v>
       </c>
-      <c r="M62" s="9">
+      <c r="N62" s="9">
         <v>296937904.01139998</v>
       </c>
-      <c r="N62" s="14">
+      <c r="O62" s="14">
         <v>77363</v>
       </c>
-      <c r="O62" s="28">
+      <c r="P62" s="28">
         <v>166.2396343893453</v>
       </c>
-      <c r="P62" s="20">
+      <c r="Q62" s="20">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R62" s="8">
+        <v>52316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44256</v>
       </c>
@@ -11981,46 +12353,52 @@
         <v>22592482.789999999</v>
       </c>
       <c r="D63" s="9">
+        <v>-4490626.7800000012</v>
+      </c>
+      <c r="E63" s="9">
         <v>50976405.913818799</v>
       </c>
-      <c r="E63" s="10">
+      <c r="F63" s="10">
         <v>381</v>
       </c>
-      <c r="F63" s="11">
+      <c r="G63" s="11">
         <v>112375140</v>
       </c>
-      <c r="G63" s="11">
+      <c r="H63" s="11">
         <v>195177520</v>
       </c>
-      <c r="H63" s="12">
+      <c r="I63" s="12">
         <v>285610769</v>
       </c>
-      <c r="I63" s="12">
+      <c r="J63" s="12">
         <v>61394658</v>
       </c>
-      <c r="J63" s="13">
+      <c r="K63" s="13">
         <v>18.171367740000001</v>
       </c>
-      <c r="K63" s="13">
+      <c r="L63" s="13">
         <v>12.67316394</v>
       </c>
-      <c r="L63" s="13">
+      <c r="M63" s="13">
         <v>22.94795178</v>
       </c>
-      <c r="M63" s="9">
+      <c r="N63" s="9">
         <v>343936162.25741005</v>
       </c>
-      <c r="N63" s="14">
+      <c r="O63" s="14">
         <v>78238</v>
       </c>
-      <c r="O63" s="29">
+      <c r="P63" s="29">
         <v>172.67901620369227</v>
       </c>
-      <c r="P63" s="20">
+      <c r="Q63" s="20">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R63" s="8">
+        <v>305431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>44287</v>
       </c>
@@ -12031,46 +12409,52 @@
         <v>22527326.039999999</v>
       </c>
       <c r="D64" s="9">
+        <v>-4838708.7799999937</v>
+      </c>
+      <c r="E64" s="9">
         <v>51441740.563665941</v>
       </c>
-      <c r="E64" s="10">
+      <c r="F64" s="10">
         <v>381</v>
       </c>
-      <c r="F64" s="11">
+      <c r="G64" s="11">
         <v>171128135</v>
       </c>
-      <c r="G64" s="11">
+      <c r="H64" s="11">
         <v>197585215</v>
       </c>
-      <c r="H64" s="12">
+      <c r="I64" s="12">
         <v>275879121</v>
       </c>
-      <c r="I64" s="12">
+      <c r="J64" s="12">
         <v>58010554</v>
       </c>
-      <c r="J64" s="13">
+      <c r="K64" s="13">
         <v>18.116735349999999</v>
       </c>
-      <c r="K64" s="13">
+      <c r="L64" s="13">
         <v>12.743136979999999</v>
       </c>
-      <c r="L64" s="13">
+      <c r="M64" s="13">
         <v>22.718613059999999</v>
       </c>
-      <c r="M64" s="9">
+      <c r="N64" s="9">
         <v>370609999.99999994</v>
       </c>
-      <c r="N64" s="14">
+      <c r="O64" s="14">
         <v>79275</v>
       </c>
-      <c r="O64" s="30">
+      <c r="P64" s="30">
         <v>166.38166609159254</v>
       </c>
-      <c r="P64" s="20">
+      <c r="Q64" s="20">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R64" s="8">
+        <v>173416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44317</v>
       </c>
@@ -12081,46 +12465,52 @@
         <v>23306663.109999999</v>
       </c>
       <c r="D65" s="9">
+        <v>-952689.31000000238</v>
+      </c>
+      <c r="E65" s="9">
         <v>50177680.930585399</v>
       </c>
-      <c r="E65" s="31">
+      <c r="F65" s="31">
         <v>397.65</v>
       </c>
-      <c r="F65" s="11">
+      <c r="G65" s="11">
         <v>95064083</v>
       </c>
-      <c r="G65" s="11">
+      <c r="H65" s="11">
         <v>201456699</v>
       </c>
-      <c r="H65" s="12">
+      <c r="I65" s="12">
         <v>289935823</v>
       </c>
-      <c r="I65" s="12">
+      <c r="J65" s="12">
         <v>50784096</v>
       </c>
-      <c r="J65" s="13">
+      <c r="K65" s="13">
         <v>17.933081940000001</v>
       </c>
-      <c r="K65" s="13">
+      <c r="L65" s="13">
         <v>13.14529915</v>
       </c>
-      <c r="L65" s="13">
+      <c r="M65" s="13">
         <v>22.277325009999998</v>
       </c>
-      <c r="M65" s="9">
+      <c r="N65" s="9">
         <v>285209999.99999994</v>
       </c>
-      <c r="N65" s="14">
+      <c r="O65" s="14">
         <v>80326</v>
       </c>
-      <c r="O65" s="30">
+      <c r="P65" s="30">
         <v>168.06317342381584</v>
       </c>
-      <c r="P65" s="20">
+      <c r="Q65" s="20">
         <v>49</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R65" s="8">
+        <v>348313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44348</v>
       </c>
@@ -12131,46 +12521,52 @@
         <v>24670332.950000003</v>
       </c>
       <c r="D66" s="9">
+        <v>-2076351.0099999979</v>
+      </c>
+      <c r="E66" s="9">
         <v>50891288.545115069</v>
       </c>
-      <c r="E66" s="31">
+      <c r="F66" s="31">
         <v>410.16</v>
       </c>
-      <c r="F66" s="11">
+      <c r="G66" s="11">
         <v>66921552</v>
       </c>
-      <c r="G66" s="11">
+      <c r="H66" s="11">
         <v>138659307</v>
       </c>
-      <c r="H66" s="12">
+      <c r="I66" s="12">
         <v>291146064</v>
       </c>
-      <c r="I66" s="12">
+      <c r="J66" s="12">
         <v>51172225</v>
       </c>
-      <c r="J66" s="13">
+      <c r="K66" s="13">
         <v>17.75075726</v>
       </c>
-      <c r="K66" s="13">
+      <c r="L66" s="13">
         <v>13.094471370000001</v>
       </c>
-      <c r="L66" s="13">
+      <c r="M66" s="13">
         <v>21.828754589999999</v>
       </c>
-      <c r="M66" s="9">
+      <c r="N66" s="9">
         <v>262642000</v>
       </c>
-      <c r="N66" s="14">
+      <c r="O66" s="14">
         <v>81385</v>
       </c>
-      <c r="O66" s="30">
+      <c r="P66" s="30">
         <v>165.60757287832286</v>
       </c>
-      <c r="P66" s="20">
+      <c r="Q66" s="20">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R66" s="8">
+        <v>326512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44378</v>
       </c>
@@ -12180,47 +12576,53 @@
       <c r="C67" s="33">
         <v>23472556.275444999</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="34">
+        <v>19331.90826138854</v>
+      </c>
+      <c r="E67" s="9">
         <v>52234992.875600196</v>
       </c>
-      <c r="E67" s="31">
+      <c r="F67" s="31">
         <v>410.13</v>
       </c>
-      <c r="F67" s="11">
+      <c r="G67" s="11">
         <v>108812929</v>
       </c>
-      <c r="G67" s="11">
+      <c r="H67" s="11">
         <v>180208347</v>
       </c>
-      <c r="H67" s="34">
+      <c r="I67" s="35">
         <v>276649292</v>
       </c>
-      <c r="I67" s="34">
+      <c r="J67" s="35">
         <v>54712233</v>
       </c>
-      <c r="J67" s="35">
+      <c r="K67" s="36">
         <v>17.377100345666975</v>
       </c>
-      <c r="K67" s="36">
+      <c r="L67" s="37">
         <v>13.720476414776911</v>
       </c>
-      <c r="L67" s="36">
+      <c r="M67" s="37">
         <v>21.031755328004792</v>
       </c>
-      <c r="M67" s="9">
+      <c r="N67" s="9">
         <v>412104000</v>
       </c>
-      <c r="N67" s="14">
+      <c r="O67" s="14">
         <v>81946</v>
       </c>
-      <c r="O67" s="37">
+      <c r="P67" s="38">
         <v>165.90553061725188</v>
       </c>
-      <c r="P67" s="20">
+      <c r="Q67" s="20">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R67" s="8">
+        <v>95546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>44409</v>
       </c>
@@ -12230,47 +12632,53 @@
       <c r="C68" s="33">
         <v>24383201.211297091</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="34">
+        <v>135050.94343163073</v>
+      </c>
+      <c r="E68" s="9">
         <v>55035016.585909605</v>
       </c>
-      <c r="E68" s="31">
+      <c r="F68" s="31">
         <v>410.15</v>
       </c>
-      <c r="F68" s="11">
+      <c r="G68" s="11">
         <v>110860368</v>
       </c>
-      <c r="G68" s="11">
+      <c r="H68" s="11">
         <v>182617418</v>
       </c>
-      <c r="H68" s="34">
+      <c r="I68" s="35">
         <v>283844214</v>
       </c>
-      <c r="I68" s="34">
+      <c r="J68" s="35">
         <v>55214753</v>
       </c>
-      <c r="J68" s="38">
+      <c r="K68" s="39">
         <v>17.009126570970999</v>
       </c>
-      <c r="K68" s="38">
+      <c r="L68" s="39">
         <v>13.408137444229901</v>
       </c>
-      <c r="L68" s="38">
+      <c r="M68" s="39">
         <v>20.302826186546099</v>
       </c>
-      <c r="M68" s="9">
+      <c r="N68" s="9">
         <v>423172000</v>
       </c>
-      <c r="N68" s="14">
+      <c r="O68" s="14">
         <v>82372</v>
       </c>
-      <c r="O68" s="39">
+      <c r="P68" s="40">
         <v>164.9087161706403</v>
       </c>
-      <c r="P68" s="20">
+      <c r="Q68" s="20">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R68" s="8">
+        <v>235946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>44440</v>
       </c>
@@ -12280,44 +12688,50 @@
       <c r="C69" s="33">
         <v>24487919.186799064</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="34">
+        <v>933.29239609837532</v>
+      </c>
+      <c r="E69" s="41">
         <v>54769499.744358093</v>
       </c>
-      <c r="E69" s="31">
+      <c r="F69" s="31">
         <v>410.56</v>
       </c>
-      <c r="F69" s="11">
+      <c r="G69" s="11">
         <v>110557413</v>
       </c>
-      <c r="G69" s="11">
+      <c r="H69" s="11">
         <v>180105397</v>
       </c>
-      <c r="H69" s="34">
+      <c r="I69" s="35">
         <v>283490903</v>
       </c>
-      <c r="I69" s="41">
+      <c r="J69" s="42">
         <v>53978772</v>
       </c>
-      <c r="J69" s="42">
+      <c r="K69" s="43">
         <v>16.629867193111252</v>
       </c>
-      <c r="K69" s="43">
+      <c r="L69" s="44">
         <v>13.744763663950891</v>
       </c>
-      <c r="L69" s="43">
+      <c r="M69" s="44">
         <v>19.566109225110125</v>
       </c>
-      <c r="M69" s="9">
+      <c r="N69" s="9">
         <v>307433000</v>
       </c>
-      <c r="N69" s="14">
+      <c r="O69" s="14">
         <v>81901</v>
       </c>
-      <c r="O69" s="39">
+      <c r="P69" s="40">
         <v>164.85</v>
       </c>
-      <c r="P69" s="20">
+      <c r="Q69" s="20">
         <v>46.9</v>
+      </c>
+      <c r="R69" s="8">
+        <v>219334.19</v>
       </c>
     </row>
   </sheetData>
